--- a/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="OPKC10" sheetId="1" r:id="rId1"/>
-    <sheet name="OPKC7" sheetId="2" r:id="rId4"/>
-    <sheet name="OPKC8" sheetId="3" r:id="rId5"/>
-    <sheet name="OPKC85" sheetId="4" r:id="rId6"/>
-    <sheet name="OPKC9" sheetId="5" r:id="rId7"/>
-    <sheet name="OPKC95" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_1 OPKC10  0-1-0-600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 OPKC7  0-1-0-600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 OPKC8  0-1-0-600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 OPKC85  0-1-0-600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 OPKC9  0-1-0-600 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_1 OPKC95  0-1-0-600 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC10</a:t>
+              <a:t>Izoterma adsorpcji probki OPKC10 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OPKC10!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 OPKC10  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OPKC10!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 OPKC10  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC7</a:t>
+              <a:t>Izoterma adsorpcji probki OPKC7 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OPKC7!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 OPKC7  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OPKC7!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 OPKC7  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC8</a:t>
+              <a:t>Izoterma adsorpcji probki OPKC8 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OPKC8!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 OPKC8  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OPKC8!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 OPKC8  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC85</a:t>
+              <a:t>Izoterma adsorpcji probki OPKC85 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OPKC85!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 OPKC85  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OPKC85!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 OPKC85  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC9</a:t>
+              <a:t>Izoterma adsorpcji probki OPKC9 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OPKC9!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 OPKC9  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OPKC9!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 OPKC9  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC95</a:t>
+              <a:t>Izoterma adsorpcji probki OPKC95 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OPKC95!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 OPKC95  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OPKC95!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 OPKC95  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
@@ -5841,7 +5841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5862,349 +5862,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0074</v>
+        <v>0.0077</v>
       </c>
       <c r="B3" s="0">
-        <v>228.5146</v>
+        <v>227.6601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.024</v>
+        <v>0.0269</v>
       </c>
       <c r="B4" s="0">
-        <v>252.9023</v>
+        <v>254.4117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.046</v>
+        <v>0.0761</v>
       </c>
       <c r="B5" s="0">
-        <v>272.8512</v>
+        <v>292.5893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0698</v>
+        <v>0.0971</v>
       </c>
       <c r="B6" s="0">
-        <v>285.7013</v>
+        <v>302.0423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0938</v>
+        <v>0.119</v>
       </c>
       <c r="B7" s="0">
-        <v>294.9431</v>
+        <v>313.4618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1175</v>
+        <v>0.134</v>
       </c>
       <c r="B8" s="0">
-        <v>311.6325</v>
+        <v>319.3714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1414</v>
+        <v>0.1568</v>
       </c>
       <c r="B9" s="0">
-        <v>322.476</v>
+        <v>329.219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1652</v>
+        <v>0.1768</v>
       </c>
       <c r="B10" s="0">
-        <v>333.9162</v>
+        <v>337.4916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1891</v>
+        <v>0.1983</v>
       </c>
       <c r="B11" s="0">
-        <v>343.9846</v>
+        <v>344.5858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.213</v>
+        <v>0.2621</v>
       </c>
       <c r="B12" s="0">
-        <v>350.0103</v>
+        <v>365.4748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2368</v>
+        <v>0.3031</v>
       </c>
       <c r="B13" s="0">
-        <v>353.6029</v>
+        <v>376.123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2607</v>
+        <v>0.3532</v>
       </c>
       <c r="B14" s="0">
-        <v>361.3127</v>
+        <v>387.1716</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2845</v>
+        <v>0.3929</v>
       </c>
       <c r="B15" s="0">
-        <v>371.7487</v>
+        <v>396.6392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3084</v>
+        <v>0.443</v>
       </c>
       <c r="B16" s="0">
-        <v>377.1007</v>
+        <v>403.3628</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3322</v>
+        <v>0.4913</v>
       </c>
       <c r="B17" s="0">
-        <v>383.5973</v>
+        <v>412.0509</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3561</v>
+        <v>0.5419</v>
       </c>
       <c r="B18" s="0">
-        <v>387.1797</v>
+        <v>418.3816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3799</v>
+        <v>0.5921</v>
       </c>
       <c r="B19" s="0">
-        <v>394.8777</v>
+        <v>425.4984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4041</v>
+        <v>0.6436</v>
       </c>
       <c r="B20" s="0">
-        <v>398.5631</v>
+        <v>433.0094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4276</v>
+        <v>0.6933</v>
       </c>
       <c r="B21" s="0">
-        <v>402.2007</v>
+        <v>439.7326</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4515</v>
+        <v>0.7438</v>
       </c>
       <c r="B22" s="0">
-        <v>406.0246</v>
+        <v>446.4565</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4754</v>
+        <v>0.7917</v>
       </c>
       <c r="B23" s="0">
-        <v>410.9849</v>
+        <v>452.7851</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4992</v>
+        <v>0.8154</v>
       </c>
       <c r="B24" s="0">
-        <v>414.8393</v>
+        <v>454.7697</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5231</v>
+        <v>0.8441</v>
       </c>
       <c r="B25" s="0">
-        <v>419.8503</v>
+        <v>459.5104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5469</v>
+        <v>0.8701</v>
       </c>
       <c r="B26" s="0">
-        <v>419.8042</v>
+        <v>463.4627</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5708</v>
+        <v>0.8943</v>
       </c>
       <c r="B27" s="0">
-        <v>424.0278</v>
+        <v>468.5931</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5946</v>
+        <v>0.9211</v>
       </c>
       <c r="B28" s="0">
-        <v>426.7802</v>
+        <v>472.5461</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6185</v>
+        <v>0.943</v>
       </c>
       <c r="B29" s="0">
-        <v>430.2753</v>
+        <v>479.2475</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6423</v>
+        <v>0.9585</v>
       </c>
       <c r="B30" s="0">
-        <v>432.0556</v>
+        <v>483.9779</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6662</v>
+        <v>0.9681</v>
       </c>
       <c r="B31" s="0">
-        <v>436.6445</v>
+        <v>491.4559</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.69</v>
+        <v>0.9681</v>
       </c>
       <c r="B32" s="0">
-        <v>439.2325</v>
+        <v>491.4559</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7139</v>
+        <v>0.9799</v>
       </c>
       <c r="B33" s="0">
-        <v>443.4399</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7378</v>
-      </c>
-      <c r="B34" s="0">
-        <v>445.4678</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7616</v>
-      </c>
-      <c r="B35" s="0">
-        <v>449.4439</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7855</v>
-      </c>
-      <c r="B36" s="0">
-        <v>453.1257</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8093</v>
-      </c>
-      <c r="B37" s="0">
-        <v>454.8877</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.833</v>
-      </c>
-      <c r="B38" s="0">
-        <v>457.5238</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.857</v>
-      </c>
-      <c r="B39" s="0">
-        <v>462.4685</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8809</v>
-      </c>
-      <c r="B40" s="0">
-        <v>466.404</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9047</v>
-      </c>
-      <c r="B41" s="0">
-        <v>470.2867</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9286</v>
-      </c>
-      <c r="B42" s="0">
-        <v>476.2049</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9524</v>
-      </c>
-      <c r="B43" s="0">
-        <v>482.6151</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9764</v>
-      </c>
-      <c r="B44" s="0">
-        <v>493.4795</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9895</v>
-      </c>
-      <c r="B45" s="0">
-        <v>506.6001</v>
-      </c>
-    </row>
-    <row r="46"/>
+        <v>498.5426</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6213,7 +6117,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6234,405 +6138,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0129</v>
+        <v>0.0082</v>
       </c>
       <c r="B3" s="0">
-        <v>129.9409</v>
+        <v>128.1847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0331</v>
+        <v>0.0301</v>
       </c>
       <c r="B4" s="0">
-        <v>137.1184</v>
+        <v>137.6383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0533</v>
+        <v>0.062</v>
       </c>
       <c r="B5" s="0">
-        <v>140.0099</v>
+        <v>140.0225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0735</v>
+        <v>0.082</v>
       </c>
       <c r="B6" s="0">
-        <v>140.6853</v>
+        <v>140.0383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0937</v>
+        <v>0.1021</v>
       </c>
       <c r="B7" s="0">
-        <v>142.2841</v>
+        <v>142.8064</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1139</v>
+        <v>0.1217</v>
       </c>
       <c r="B8" s="0">
-        <v>142.228</v>
+        <v>142.0354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1341</v>
+        <v>0.1413</v>
       </c>
       <c r="B9" s="0">
-        <v>142.3878</v>
+        <v>142.444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1542</v>
+        <v>0.1604</v>
       </c>
       <c r="B10" s="0">
-        <v>142.4996</v>
+        <v>142.8522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1744</v>
+        <v>0.1796</v>
       </c>
       <c r="B11" s="0">
-        <v>142.2037</v>
+        <v>142.8673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1946</v>
+        <v>0.2001</v>
       </c>
       <c r="B12" s="0">
-        <v>143.8025</v>
+        <v>144.4562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2148</v>
+        <v>0.2489</v>
       </c>
       <c r="B13" s="0">
-        <v>143.3867</v>
+        <v>144.4945</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.235</v>
+        <v>0.2985</v>
       </c>
       <c r="B14" s="0">
-        <v>143.4026</v>
+        <v>143.7472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2552</v>
+        <v>0.3683</v>
       </c>
       <c r="B15" s="0">
-        <v>143.9461</v>
+        <v>144.1952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2753</v>
+        <v>0.4202</v>
       </c>
       <c r="B16" s="0">
-        <v>143.4343</v>
+        <v>144.2361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2955</v>
+        <v>0.4699</v>
       </c>
       <c r="B17" s="0">
-        <v>143.8099</v>
+        <v>142.7024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3157</v>
+        <v>0.5191</v>
       </c>
       <c r="B18" s="0">
-        <v>143.466</v>
+        <v>143.1343</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3359</v>
+        <v>0.5697</v>
       </c>
       <c r="B19" s="0">
-        <v>143.4819</v>
+        <v>143.5673</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3561</v>
+        <v>0.6199</v>
       </c>
       <c r="B20" s="0">
-        <v>143.4978</v>
+        <v>143.6067</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3763</v>
+        <v>0.6718</v>
       </c>
       <c r="B21" s="0">
-        <v>143.8494</v>
+        <v>142.8612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3965</v>
+        <v>0.7211</v>
       </c>
       <c r="B22" s="0">
-        <v>143.5295</v>
+        <v>143.2931</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4166</v>
+        <v>0.7698</v>
       </c>
       <c r="B23" s="0">
-        <v>143.9771</v>
+        <v>141.3655</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4368</v>
+        <v>0.8195</v>
       </c>
       <c r="B24" s="0">
-        <v>143.5613</v>
+        <v>141.0114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.457</v>
+        <v>0.8751</v>
       </c>
       <c r="B25" s="0">
-        <v>143.3613</v>
+        <v>141.0551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4772</v>
+        <v>0.8993</v>
       </c>
       <c r="B26" s="0">
-        <v>143.1133</v>
+        <v>143.4332</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4974</v>
+        <v>0.9398</v>
       </c>
       <c r="B27" s="0">
-        <v>143.6089</v>
+        <v>143.072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5176</v>
+        <v>0.9572</v>
       </c>
       <c r="B28" s="0">
-        <v>142.5695</v>
+        <v>142.2992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5377</v>
+        <v>0.9681</v>
       </c>
       <c r="B29" s="0">
-        <v>143.6406</v>
+        <v>143.0942</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5579</v>
+        <v>0.979</v>
       </c>
       <c r="B30" s="0">
-        <v>143.4407</v>
+        <v>146.2483</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5781</v>
+        <v>0.9886</v>
       </c>
       <c r="B31" s="0">
-        <v>143.1927</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5983</v>
-      </c>
-      <c r="B32" s="0">
-        <v>143.6883</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6185</v>
-      </c>
-      <c r="B33" s="0">
-        <v>142.6488</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6387</v>
-      </c>
-      <c r="B34" s="0">
-        <v>143.72</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6589</v>
-      </c>
-      <c r="B35" s="0">
-        <v>143.52</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.679</v>
-      </c>
-      <c r="B36" s="0">
-        <v>143.1761</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6992</v>
-      </c>
-      <c r="B37" s="0">
-        <v>143.7676</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7194</v>
-      </c>
-      <c r="B38" s="0">
-        <v>142.8481</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7396</v>
-      </c>
-      <c r="B39" s="0">
-        <v>143.7994</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7598</v>
-      </c>
-      <c r="B40" s="0">
-        <v>141.7646</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>141.5047</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8001</v>
-      </c>
-      <c r="B42" s="0">
-        <v>141.4726</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8203</v>
-      </c>
-      <c r="B43" s="0">
-        <v>141.2606</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8405</v>
-      </c>
-      <c r="B44" s="0">
-        <v>141.5043</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8607</v>
-      </c>
-      <c r="B45" s="0">
-        <v>141.1101</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8809</v>
-      </c>
-      <c r="B46" s="0">
-        <v>142.5914</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9011</v>
-      </c>
-      <c r="B47" s="0">
-        <v>142.919</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9213</v>
-      </c>
-      <c r="B48" s="0">
-        <v>143.9422</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9414</v>
-      </c>
-      <c r="B49" s="0">
-        <v>142.9412</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9616</v>
-      </c>
-      <c r="B50" s="0">
-        <v>143.8801</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9818</v>
-      </c>
-      <c r="B51" s="0">
-        <v>145.8736</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9928</v>
-      </c>
-      <c r="B52" s="0">
-        <v>149.5387</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>149.0081</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6641,7 +6377,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6662,317 +6398,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0139</v>
+        <v>0.0087</v>
       </c>
       <c r="B3" s="0">
-        <v>154.1961</v>
+        <v>148.6307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0396</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>166.8515</v>
+        <v>162.8004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0652</v>
+        <v>0.0588</v>
       </c>
       <c r="B5" s="0">
-        <v>172.5043</v>
+        <v>172.2612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0909</v>
+        <v>0.0807</v>
       </c>
       <c r="B6" s="0">
-        <v>176.022</v>
+        <v>174.2443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1166</v>
+        <v>0.1016</v>
       </c>
       <c r="B7" s="0">
-        <v>178.4241</v>
+        <v>177.0131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1423</v>
+        <v>0.1231</v>
       </c>
       <c r="B8" s="0">
-        <v>180.6416</v>
+        <v>178.2095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.168</v>
+        <v>0.1454</v>
       </c>
       <c r="B9" s="0">
-        <v>182.6405</v>
+        <v>180.9793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1937</v>
+        <v>0.1677</v>
       </c>
       <c r="B10" s="0">
-        <v>183.7254</v>
+        <v>183.356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2194</v>
+        <v>0.186</v>
       </c>
       <c r="B11" s="0">
-        <v>184.5088</v>
+        <v>183.7635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2451</v>
+        <v>0.2051</v>
       </c>
       <c r="B12" s="0">
-        <v>184.2557</v>
+        <v>184.565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2708</v>
+        <v>0.2466</v>
       </c>
       <c r="B13" s="0">
-        <v>185.8871</v>
+        <v>184.5976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2964</v>
+        <v>0.3017</v>
       </c>
       <c r="B14" s="0">
-        <v>186.1598</v>
+        <v>185.4273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3221</v>
+        <v>0.3482</v>
       </c>
       <c r="B15" s="0">
-        <v>189.9979</v>
+        <v>188.2162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3478</v>
+        <v>0.3974</v>
       </c>
       <c r="B16" s="0">
-        <v>188.7367</v>
+        <v>188.2549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3735</v>
+        <v>0.449</v>
       </c>
       <c r="B17" s="0">
-        <v>190.2079</v>
+        <v>188.2954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3992</v>
+        <v>0.4982</v>
       </c>
       <c r="B18" s="0">
-        <v>188.7771</v>
+        <v>188.3341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4249</v>
+        <v>0.5479</v>
       </c>
       <c r="B19" s="0">
-        <v>190.2483</v>
+        <v>190.3391</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4506</v>
+        <v>0.5994</v>
       </c>
       <c r="B20" s="0">
-        <v>188.8175</v>
+        <v>190.7728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4763</v>
+        <v>0.6486</v>
       </c>
       <c r="B21" s="0">
-        <v>190.2887</v>
+        <v>190.4183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.502</v>
+        <v>0.6978</v>
       </c>
       <c r="B22" s="0">
-        <v>189.5363</v>
+        <v>190.8502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5277</v>
+        <v>0.7466</v>
       </c>
       <c r="B23" s="0">
-        <v>192.7035</v>
+        <v>190.8885</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5533</v>
+        <v>0.7985</v>
       </c>
       <c r="B24" s="0">
-        <v>191.1295</v>
+        <v>190.9294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.579</v>
+        <v>0.82</v>
       </c>
       <c r="B25" s="0">
-        <v>192.7439</v>
+        <v>190.9462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6047</v>
+        <v>0.8482</v>
       </c>
       <c r="B26" s="0">
-        <v>191.1699</v>
+        <v>191.3616</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6304</v>
+        <v>0.8742</v>
       </c>
       <c r="B27" s="0">
-        <v>192.5582</v>
+        <v>190.9889</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6561</v>
+        <v>0.8993</v>
       </c>
       <c r="B28" s="0">
-        <v>191.4364</v>
+        <v>191.795</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6818</v>
+        <v>0.9221</v>
       </c>
       <c r="B29" s="0">
-        <v>192.2293</v>
+        <v>192.2061</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7075</v>
+        <v>0.9476</v>
       </c>
       <c r="B30" s="0">
-        <v>191.8386</v>
+        <v>193.0125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7332</v>
+        <v>0.9576</v>
       </c>
       <c r="B31" s="0">
-        <v>192.2433</v>
+        <v>196.1659</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7589</v>
+        <v>0.9654</v>
       </c>
       <c r="B32" s="0">
-        <v>192.0637</v>
+        <v>196.172</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7845</v>
+        <v>0.9745</v>
       </c>
       <c r="B33" s="0">
-        <v>192.197</v>
+        <v>196.1791</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8102</v>
+        <v>0.9813</v>
       </c>
       <c r="B34" s="0">
-        <v>190.9019</v>
+        <v>197.7573</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8359</v>
+        <v>0.9891</v>
       </c>
       <c r="B35" s="0">
-        <v>191.7474</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8616</v>
-      </c>
-      <c r="B36" s="0">
-        <v>191.534</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8873</v>
-      </c>
-      <c r="B37" s="0">
-        <v>191.9574</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.913</v>
-      </c>
-      <c r="B38" s="0">
-        <v>192.0455</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9387</v>
-      </c>
-      <c r="B39" s="0">
-        <v>192.0657</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9644</v>
-      </c>
-      <c r="B40" s="0">
-        <v>195.704</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9864</v>
-      </c>
-      <c r="B41" s="0">
-        <v>197.1007</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>198.1565</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6981,7 +6669,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7002,405 +6690,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0079</v>
+        <v>0.0068</v>
       </c>
       <c r="B3" s="0">
-        <v>241.7048</v>
+        <v>242.2072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0441</v>
+        <v>0.0251</v>
       </c>
       <c r="B4" s="0">
-        <v>271.2779</v>
+        <v>264.2399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0643</v>
+        <v>0.0588</v>
       </c>
       <c r="B5" s="0">
-        <v>278.2131</v>
+        <v>279.6006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0845</v>
+        <v>0.0798</v>
       </c>
       <c r="B6" s="0">
-        <v>282.8938</v>
+        <v>283.1558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1047</v>
+        <v>0.0998</v>
       </c>
       <c r="B7" s="0">
-        <v>286.915</v>
+        <v>286.7102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1249</v>
+        <v>0.124</v>
       </c>
       <c r="B8" s="0">
-        <v>290.9122</v>
+        <v>291.0542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1451</v>
+        <v>0.15</v>
       </c>
       <c r="B9" s="0">
-        <v>291.9234</v>
+        <v>293.827</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1652</v>
+        <v>0.1673</v>
       </c>
       <c r="B10" s="0">
-        <v>295.1171</v>
+        <v>295.8065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1845</v>
+        <v>0.1864</v>
       </c>
       <c r="B11" s="0">
-        <v>295.5088</v>
+        <v>295.0352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2056</v>
+        <v>0.2042</v>
       </c>
       <c r="B12" s="0">
-        <v>296.0602</v>
+        <v>295.8355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2258</v>
+        <v>0.2484</v>
       </c>
       <c r="B13" s="0">
-        <v>297.3712</v>
+        <v>297.443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.246</v>
+        <v>0.3031</v>
       </c>
       <c r="B14" s="0">
-        <v>297.8188</v>
+        <v>299.8452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2662</v>
+        <v>0.3482</v>
       </c>
       <c r="B15" s="0">
-        <v>298.77</v>
+        <v>300.2738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2864</v>
+        <v>0.3979</v>
       </c>
       <c r="B16" s="0">
-        <v>300.153</v>
+        <v>302.672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3065</v>
+        <v>0.4476</v>
       </c>
       <c r="B17" s="0">
-        <v>299.3534</v>
+        <v>302.7111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3267</v>
+        <v>0.4968</v>
       </c>
       <c r="B18" s="0">
-        <v>300.1847</v>
+        <v>305.5021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3469</v>
+        <v>0.546</v>
       </c>
       <c r="B19" s="0">
-        <v>299.0494</v>
+        <v>305.1476</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3671</v>
+        <v>0.5985</v>
       </c>
       <c r="B20" s="0">
-        <v>300.2165</v>
+        <v>304.4025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3873</v>
+        <v>0.6655</v>
       </c>
       <c r="B21" s="0">
-        <v>300.9759</v>
+        <v>305.2415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4075</v>
+        <v>0.696</v>
       </c>
       <c r="B22" s="0">
-        <v>301.3035</v>
+        <v>305.6587</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4276</v>
+        <v>0.7457</v>
       </c>
       <c r="B23" s="0">
-        <v>300.2641</v>
+        <v>306.8773</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4478</v>
+        <v>0.7976</v>
       </c>
       <c r="B24" s="0">
-        <v>302.1027</v>
+        <v>307.3114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.468</v>
+        <v>0.8181</v>
       </c>
       <c r="B25" s="0">
-        <v>302.1666</v>
+        <v>306.9343</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4882</v>
+        <v>0.8469</v>
       </c>
       <c r="B26" s="0">
-        <v>302.9739</v>
+        <v>307.3501</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5084</v>
+        <v>0.8719</v>
       </c>
       <c r="B27" s="0">
-        <v>303.1097</v>
+        <v>307.3698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5286</v>
+        <v>0.8979</v>
       </c>
       <c r="B28" s="0">
-        <v>302.7179</v>
+        <v>307.3902</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5488</v>
+        <v>0.9216</v>
       </c>
       <c r="B29" s="0">
-        <v>303.5012</v>
+        <v>307.4089</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5689</v>
+        <v>0.9448</v>
       </c>
       <c r="B30" s="0">
-        <v>302.7496</v>
+        <v>309.3931</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5891</v>
+        <v>0.959</v>
       </c>
       <c r="B31" s="0">
-        <v>303.0533</v>
+        <v>310.5837</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6093</v>
+        <v>0.9699</v>
       </c>
       <c r="B32" s="0">
-        <v>303.261</v>
+        <v>313.7378</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6295</v>
+        <v>0.9799</v>
       </c>
       <c r="B33" s="0">
-        <v>302.7972</v>
+        <v>315.3184</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6497</v>
+        <v>0.9868</v>
       </c>
       <c r="B34" s="0">
-        <v>302.957</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6699</v>
-      </c>
-      <c r="B35" s="0">
-        <v>303.4525</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.69</v>
-      </c>
-      <c r="B36" s="0">
-        <v>303.7322</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7102</v>
-      </c>
-      <c r="B37" s="0">
-        <v>303.3644</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7304</v>
-      </c>
-      <c r="B38" s="0">
-        <v>304.6754</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7506</v>
-      </c>
-      <c r="B39" s="0">
-        <v>306.6579</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7708</v>
-      </c>
-      <c r="B40" s="0">
-        <v>304.4913</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.791</v>
-      </c>
-      <c r="B41" s="0">
-        <v>306.5458</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8112</v>
-      </c>
-      <c r="B42" s="0">
-        <v>306.9214</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8313</v>
-      </c>
-      <c r="B43" s="0">
-        <v>305.2584</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8515</v>
-      </c>
-      <c r="B44" s="0">
-        <v>306.7373</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8717</v>
-      </c>
-      <c r="B45" s="0">
-        <v>307.8132</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8919</v>
-      </c>
-      <c r="B46" s="0">
-        <v>307.7044</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9121</v>
-      </c>
-      <c r="B47" s="0">
-        <v>307.4564</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9323</v>
-      </c>
-      <c r="B48" s="0">
-        <v>309.1032</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9524</v>
-      </c>
-      <c r="B49" s="0">
-        <v>309.546</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9726</v>
-      </c>
-      <c r="B50" s="0">
-        <v>313.2266</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9882</v>
-      </c>
-      <c r="B51" s="0">
-        <v>316.5782</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0255</v>
-      </c>
-      <c r="B52" s="0">
-        <v>264.2403</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>318.4693</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7409,7 +6953,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7430,285 +6974,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0084</v>
+        <v>0.0073</v>
       </c>
       <c r="B3" s="0">
-        <v>268.7332</v>
+        <v>268.9441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.034</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>300.7652</v>
+        <v>296.8764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0634</v>
+        <v>0.0597</v>
       </c>
       <c r="B5" s="0">
-        <v>320.9416</v>
+        <v>318.1335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0928</v>
+        <v>0.1003</v>
       </c>
       <c r="B6" s="0">
-        <v>332.0864</v>
+        <v>333.1064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1221</v>
+        <v>0.1226</v>
       </c>
       <c r="B7" s="0">
-        <v>337.4606</v>
+        <v>337.0558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1533</v>
+        <v>0.1454</v>
       </c>
       <c r="B8" s="0">
-        <v>343.48</v>
+        <v>342.1851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1827</v>
+        <v>0.17</v>
       </c>
       <c r="B9" s="0">
-        <v>345.5889</v>
+        <v>344.1704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.212</v>
+        <v>0.1896</v>
       </c>
       <c r="B10" s="0">
-        <v>349.8018</v>
+        <v>348.5108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2414</v>
+        <v>0.2101</v>
       </c>
       <c r="B11" s="0">
-        <v>352.2719</v>
+        <v>349.7065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2708</v>
+        <v>0.2493</v>
       </c>
       <c r="B12" s="0">
-        <v>353.7295</v>
+        <v>352.4896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3001</v>
+        <v>0.3013</v>
       </c>
       <c r="B13" s="0">
-        <v>355.9126</v>
+        <v>355.676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3295</v>
+        <v>0.356</v>
       </c>
       <c r="B14" s="0">
-        <v>357.9638</v>
+        <v>358.0781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3588</v>
+        <v>0.3947</v>
       </c>
       <c r="B15" s="0">
-        <v>358.0859</v>
+        <v>360.0745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3882</v>
+        <v>0.4485</v>
       </c>
       <c r="B16" s="0">
-        <v>360.1371</v>
+        <v>361.6895</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4176</v>
+        <v>0.4982</v>
       </c>
       <c r="B17" s="0">
-        <v>360.4075</v>
+        <v>363.6945</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4469</v>
+        <v>0.5483</v>
       </c>
       <c r="B18" s="0">
-        <v>360.8263</v>
+        <v>364.5203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4763</v>
+        <v>0.5975</v>
       </c>
       <c r="B19" s="0">
-        <v>361.9871</v>
+        <v>366.9181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5056</v>
+        <v>0.6468</v>
       </c>
       <c r="B20" s="0">
-        <v>363.148</v>
+        <v>366.9568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.535</v>
+        <v>0.6974</v>
       </c>
       <c r="B21" s="0">
-        <v>363.0721</v>
+        <v>366.9966</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5644</v>
+        <v>0.747</v>
       </c>
       <c r="B22" s="0">
-        <v>364.5297</v>
+        <v>367.4289</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5937</v>
+        <v>0.7985</v>
       </c>
       <c r="B23" s="0">
-        <v>365.5916</v>
+        <v>367.8625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6231</v>
+        <v>0.82</v>
       </c>
       <c r="B24" s="0">
-        <v>365.3179</v>
+        <v>369.4521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6524</v>
+        <v>0.8487</v>
       </c>
       <c r="B25" s="0">
-        <v>365.6378</v>
+        <v>369.4747</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6818</v>
+        <v>0.8724</v>
       </c>
       <c r="B26" s="0">
-        <v>365.5125</v>
+        <v>371.4593</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7111</v>
+        <v>0.8993</v>
       </c>
       <c r="B27" s="0">
-        <v>366.9701</v>
+        <v>371.4804</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7405</v>
+        <v>0.923</v>
       </c>
       <c r="B28" s="0">
-        <v>367.3889</v>
+        <v>373.0718</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7699</v>
+        <v>0.949</v>
       </c>
       <c r="B29" s="0">
-        <v>367.8077</v>
+        <v>375.8445</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7992</v>
+        <v>0.9617</v>
       </c>
       <c r="B30" s="0">
-        <v>367.8803</v>
+        <v>377.4273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8286</v>
+        <v>0.9727</v>
       </c>
       <c r="B31" s="0">
-        <v>369.4368</v>
+        <v>379.0086</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8579</v>
+        <v>0.9818</v>
       </c>
       <c r="B32" s="0">
-        <v>370.6966</v>
+        <v>382.1613</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8873</v>
+        <v>0.9881</v>
       </c>
       <c r="B33" s="0">
-        <v>371.5606</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9167</v>
-      </c>
-      <c r="B34" s="0">
-        <v>372.4246</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.946</v>
-      </c>
-      <c r="B35" s="0">
-        <v>375.8114</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9754</v>
-      </c>
-      <c r="B36" s="0">
-        <v>381.5726</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9891</v>
-      </c>
-      <c r="B37" s="0">
-        <v>388.458</v>
-      </c>
-    </row>
-    <row r="38"/>
+        <v>388.0641</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7717,7 +7229,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7738,285 +7250,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.012</v>
+        <v>0.0064</v>
       </c>
       <c r="B3" s="0">
-        <v>268.7701</v>
+        <v>262.6525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0334</v>
+        <v>0.0255</v>
       </c>
       <c r="B4" s="0">
-        <v>297.245</v>
+        <v>296.0882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0634</v>
+        <v>0.0574</v>
       </c>
       <c r="B5" s="0">
-        <v>321.832</v>
+        <v>319.3112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0928</v>
+        <v>0.0775</v>
       </c>
       <c r="B6" s="0">
-        <v>339.402</v>
+        <v>333.8748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1221</v>
+        <v>0.0953</v>
       </c>
       <c r="B7" s="0">
-        <v>357.2072</v>
+        <v>345.2912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1515</v>
+        <v>0.1158</v>
       </c>
       <c r="B8" s="0">
-        <v>369.2506</v>
+        <v>355.9233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1816</v>
+        <v>0.1363</v>
       </c>
       <c r="B9" s="0">
-        <v>380.5362</v>
+        <v>365.3758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2102</v>
+        <v>0.1604</v>
       </c>
       <c r="B10" s="0">
-        <v>390.4685</v>
+        <v>374.4381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2396</v>
+        <v>0.1805</v>
       </c>
       <c r="B11" s="0">
-        <v>399.3461</v>
+        <v>381.5312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2689</v>
+        <v>0.2037</v>
       </c>
       <c r="B12" s="0">
-        <v>406.344</v>
+        <v>390.1995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2983</v>
+        <v>0.2402</v>
       </c>
       <c r="B13" s="0">
-        <v>413.6387</v>
+        <v>401.2374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3276</v>
+        <v>0.2949</v>
       </c>
       <c r="B14" s="0">
-        <v>419.7461</v>
+        <v>414.6487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.357</v>
+        <v>0.3441</v>
       </c>
       <c r="B15" s="0">
-        <v>424.3696</v>
+        <v>424.517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3864</v>
+        <v>0.3906</v>
       </c>
       <c r="B16" s="0">
-        <v>431.1201</v>
+        <v>433.2036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4157</v>
+        <v>0.4426</v>
       </c>
       <c r="B17" s="0">
-        <v>436.6835</v>
+        <v>441.5014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4451</v>
+        <v>0.4918</v>
       </c>
       <c r="B18" s="0">
-        <v>441.7027</v>
+        <v>448.2242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4744</v>
+        <v>0.5438</v>
       </c>
       <c r="B19" s="0">
-        <v>444.5454</v>
+        <v>455.3424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.504</v>
+        <v>0.5957</v>
       </c>
       <c r="B20" s="0">
-        <v>448.7502</v>
+        <v>461.6742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5332</v>
+        <v>0.6449</v>
       </c>
       <c r="B21" s="0">
-        <v>453.1493</v>
+        <v>466.4311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5625</v>
+        <v>0.6942</v>
       </c>
       <c r="B22" s="0">
-        <v>456.4866</v>
+        <v>471.5813</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5919</v>
+        <v>0.7443</v>
       </c>
       <c r="B23" s="0">
-        <v>460.3681</v>
+        <v>475.9457</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6212</v>
+        <v>0.7944</v>
       </c>
       <c r="B24" s="0">
-        <v>463.7054</v>
+        <v>480.3102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6506</v>
+        <v>0.8154</v>
       </c>
       <c r="B25" s="0">
-        <v>465.905</v>
+        <v>482.6858</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.68</v>
+        <v>0.8469</v>
       </c>
       <c r="B26" s="0">
-        <v>468.5499</v>
+        <v>484.2832</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7093</v>
+        <v>0.8715</v>
       </c>
       <c r="B27" s="0">
-        <v>471.2441</v>
+        <v>487.4481</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7387</v>
+        <v>0.8961</v>
       </c>
       <c r="B28" s="0">
-        <v>474.9772</v>
+        <v>488.2538</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.768</v>
+        <v>0.9221</v>
       </c>
       <c r="B29" s="0">
-        <v>477.4736</v>
+        <v>491.0265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7974</v>
+        <v>0.9426</v>
       </c>
       <c r="B30" s="0">
-        <v>480.1185</v>
+        <v>495.7609</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8268</v>
+        <v>0.9558</v>
       </c>
       <c r="B31" s="0">
-        <v>481.7245</v>
+        <v>500.4895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8561</v>
+        <v>0.9672</v>
       </c>
       <c r="B32" s="0">
-        <v>484.2209</v>
+        <v>504.0371</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8855</v>
+        <v>0.9763</v>
       </c>
       <c r="B33" s="0">
-        <v>486.47</v>
+        <v>508.7625</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9148</v>
+        <v>0.9863</v>
       </c>
       <c r="B34" s="0">
-        <v>489.9062</v>
+        <v>513.4886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9442</v>
+        <v>0.9936</v>
       </c>
       <c r="B35" s="0">
-        <v>495.6867</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9735</v>
-      </c>
-      <c r="B36" s="0">
-        <v>507.3152</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9919</v>
-      </c>
-      <c r="B37" s="0">
-        <v>518.7564</v>
-      </c>
-    </row>
-    <row r="38"/>
+        <v>519.7853</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
@@ -5,27 +5,39 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 OPKC10  0-1-0-600 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 OPKC7  0-1-0-600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_1 OPKC8  0-1-0-600 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 OPKC85  0-1-0-600 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_1 OPKC9  0-1-0-600 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_1 OPKC95  0-1-0-600 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 OPZn5  0&amp;1&amp;0&amp;450 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 OPZn8  0&amp;1&amp;0&amp;450 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 OPZn9  0&amp;1&amp;0&amp;450 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 OPKC10  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 OPKC7  0&amp;1&amp;0&amp;600 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_1 OPKC8  0&amp;1&amp;0&amp;600 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_1 OPKC85  0&amp;1&amp;0&amp;600 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_1 OPKC9  0&amp;1&amp;0&amp;600 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_1 OPKC95  0&amp;1&amp;0&amp;600 " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>OPKC10</t>
+    <t>OPZn5</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>OPZn8</t>
+  </si>
+  <si>
+    <t>OPZn9</t>
+  </si>
+  <si>
+    <t>OPKC10</t>
   </si>
   <si>
     <t>OPKC7</t>
@@ -117,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC10 z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki OPZn5 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC10  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 OPZn5  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC10  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 OPZn5  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -265,7 +277,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
+          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -431,7 +443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC7 z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki OPZn8 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -490,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC7  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 OPZn8  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC7  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 OPZn8  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -579,7 +591,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
+          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -745,7 +757,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC8 z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki OPZn9 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -804,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC8  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 OPZn9  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC8  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 OPZn9  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -893,7 +905,7 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
+          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1059,7 +1071,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC85 z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki OPKC10 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,12 +1130,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC85  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 OPKC10  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC85  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 OPKC10  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1373,7 +1385,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPKC9 z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki OPKC7 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1432,12 +1444,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC9  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 OPKC7  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC9  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 OPKC7  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1687,6 +1699,948 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
+              <a:t>Izoterma adsorpcji probki OPKC8 z wykresu 'Figure 2_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 OPKC8  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 OPKC8  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki OPKC85 z wykresu 'Figure 2_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 OPKC85  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 OPKC85  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki OPKC9 z wykresu 'Figure 2_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 OPKC9  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 OPKC9  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
               <a:t>Izoterma adsorpcji probki OPKC95 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
@@ -1746,12 +2700,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC95  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 OPKC95  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 OPKC95  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 OPKC95  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2208,6 +3162,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -4814,6 +5888,1569 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5544,6 +8181,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5841,6 +8583,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0068</v>
+      </c>
+      <c r="B3" s="0">
+        <v>206.2616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0262</v>
+      </c>
+      <c r="B4" s="0">
+        <v>242.7327</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0542</v>
+      </c>
+      <c r="B5" s="0">
+        <v>270.5789</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.075</v>
+      </c>
+      <c r="B6" s="0">
+        <v>284.1682</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0967</v>
+      </c>
+      <c r="B7" s="0">
+        <v>295.7675</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1161</v>
+      </c>
+      <c r="B8" s="0">
+        <v>307.3675</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1319</v>
+      </c>
+      <c r="B9" s="0">
+        <v>312.9997</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1604</v>
+      </c>
+      <c r="B10" s="0">
+        <v>326.5865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1762</v>
+      </c>
+      <c r="B11" s="0">
+        <v>332.2186</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1952</v>
+      </c>
+      <c r="B12" s="0">
+        <v>339.1762</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2508</v>
+      </c>
+      <c r="B13" s="0">
+        <v>358.723</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2924</v>
+      </c>
+      <c r="B14" s="0">
+        <v>371.6422</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3493</v>
+      </c>
+      <c r="B15" s="0">
+        <v>385.5511</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3963</v>
+      </c>
+      <c r="B16" s="0">
+        <v>395.1523</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4424</v>
+      </c>
+      <c r="B17" s="0">
+        <v>403.4274</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4894</v>
+      </c>
+      <c r="B18" s="0">
+        <v>412.0337</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5409</v>
+      </c>
+      <c r="B19" s="0">
+        <v>415.6644</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5956</v>
+      </c>
+      <c r="B20" s="0">
+        <v>421.2837</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6453</v>
+      </c>
+      <c r="B21" s="0">
+        <v>423.5885</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6909</v>
+      </c>
+      <c r="B22" s="0">
+        <v>426.5579</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7438</v>
+      </c>
+      <c r="B23" s="0">
+        <v>429.1933</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7944</v>
+      </c>
+      <c r="B24" s="0">
+        <v>431.1662</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8156</v>
+      </c>
+      <c r="B25" s="0">
+        <v>432.4856</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8446</v>
+      </c>
+      <c r="B26" s="0">
+        <v>433.8025</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8708</v>
+      </c>
+      <c r="B27" s="0">
+        <v>434.1254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8961</v>
+      </c>
+      <c r="B28" s="0">
+        <v>435.1118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9214</v>
+      </c>
+      <c r="B29" s="0">
+        <v>437.0931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9453</v>
+      </c>
+      <c r="B30" s="0">
+        <v>438.08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9562</v>
+      </c>
+      <c r="B31" s="0">
+        <v>438.7397</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9643</v>
+      </c>
+      <c r="B32" s="0">
+        <v>440.395</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9747</v>
+      </c>
+      <c r="B33" s="0">
+        <v>440.7232</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9869</v>
+      </c>
+      <c r="B34" s="0">
+        <v>442.0456</v>
+      </c>
+    </row>
+    <row r="35"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9869</v>
+      </c>
+      <c r="B3" s="0">
+        <v>336.5924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9553</v>
+      </c>
+      <c r="B4" s="0">
+        <v>333.6184</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9449</v>
+      </c>
+      <c r="B5" s="0">
+        <v>332.9586</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9218</v>
+      </c>
+      <c r="B6" s="0">
+        <v>331.3082</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.897</v>
+      </c>
+      <c r="B7" s="0">
+        <v>331.648</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8694</v>
+      </c>
+      <c r="B8" s="0">
+        <v>331.6572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8468</v>
+      </c>
+      <c r="B9" s="0">
+        <v>331.6647</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8161</v>
+      </c>
+      <c r="B10" s="0">
+        <v>329.6852</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7948</v>
+      </c>
+      <c r="B11" s="0">
+        <v>329.3606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7433</v>
+      </c>
+      <c r="B12" s="0">
+        <v>329.3777</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6936</v>
+      </c>
+      <c r="B13" s="0">
+        <v>328.0677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6453</v>
+      </c>
+      <c r="B14" s="0">
+        <v>326.094</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5933</v>
+      </c>
+      <c r="B15" s="0">
+        <v>323.79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5409</v>
+      </c>
+      <c r="B16" s="0">
+        <v>322.8125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4953</v>
+      </c>
+      <c r="B17" s="0">
+        <v>318.1851</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4451</v>
+      </c>
+      <c r="B18" s="0">
+        <v>312.8959</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3918</v>
+      </c>
+      <c r="B19" s="0">
+        <v>304.6232</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3461</v>
+      </c>
+      <c r="B20" s="0">
+        <v>298.0061</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2964</v>
+      </c>
+      <c r="B21" s="0">
+        <v>287.7425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2535</v>
+      </c>
+      <c r="B22" s="0">
+        <v>278.4716</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1934</v>
+      </c>
+      <c r="B23" s="0">
+        <v>261.5792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1731</v>
+      </c>
+      <c r="B24" s="0">
+        <v>256.9433</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1532</v>
+      </c>
+      <c r="B25" s="0">
+        <v>250.6493</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1351</v>
+      </c>
+      <c r="B26" s="0">
+        <v>244.023</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.1161</v>
+      </c>
+      <c r="B27" s="0">
+        <v>240.7131</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0962</v>
+      </c>
+      <c r="B28" s="0">
+        <v>231.1029</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0746</v>
+      </c>
+      <c r="B29" s="0">
+        <v>221.8249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0565</v>
+      </c>
+      <c r="B30" s="0">
+        <v>213.8722</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0271</v>
+      </c>
+      <c r="B31" s="0">
+        <v>194.98</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0068</v>
+      </c>
+      <c r="B32" s="0">
+        <v>172.437</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5849,7 +9143,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -5862,250 +9156,250 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0077</v>
+        <v>0.9896</v>
       </c>
       <c r="B3" s="0">
-        <v>227.6601</v>
+        <v>294.4765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0269</v>
+        <v>0.9779</v>
       </c>
       <c r="B4" s="0">
-        <v>254.4117</v>
+        <v>294.1488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0761</v>
+        <v>0.9643</v>
       </c>
       <c r="B5" s="0">
-        <v>292.5893</v>
+        <v>293.4901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0971</v>
+        <v>0.948</v>
       </c>
       <c r="B6" s="0">
-        <v>302.0423</v>
+        <v>292.8323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.119</v>
+        <v>0.9227</v>
       </c>
       <c r="B7" s="0">
-        <v>313.4618</v>
+        <v>292.1774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.134</v>
+        <v>0.8956</v>
       </c>
       <c r="B8" s="0">
-        <v>319.3714</v>
+        <v>290.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1568</v>
+        <v>0.8712</v>
       </c>
       <c r="B9" s="0">
-        <v>329.219</v>
+        <v>290.2048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1768</v>
+        <v>0.8477</v>
       </c>
       <c r="B10" s="0">
-        <v>337.4916</v>
+        <v>290.8758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1983</v>
+        <v>0.8174</v>
       </c>
       <c r="B11" s="0">
-        <v>344.5858</v>
+        <v>288.233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2621</v>
+        <v>0.7958</v>
       </c>
       <c r="B12" s="0">
-        <v>365.4748</v>
+        <v>288.2402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3031</v>
+        <v>0.746</v>
       </c>
       <c r="B13" s="0">
-        <v>376.123</v>
+        <v>287.2618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3532</v>
+        <v>0.695</v>
       </c>
       <c r="B14" s="0">
-        <v>387.1716</v>
+        <v>287.942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3929</v>
+        <v>0.6453</v>
       </c>
       <c r="B15" s="0">
-        <v>396.6392</v>
+        <v>285.9688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.443</v>
+        <v>0.5951</v>
       </c>
       <c r="B16" s="0">
-        <v>403.3628</v>
+        <v>282.6693</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4913</v>
+        <v>0.5459</v>
       </c>
       <c r="B17" s="0">
-        <v>412.0509</v>
+        <v>280.0327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5419</v>
+        <v>0.4925</v>
       </c>
       <c r="B18" s="0">
-        <v>418.3816</v>
+        <v>276.071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5921</v>
+        <v>0.4437</v>
       </c>
       <c r="B19" s="0">
-        <v>425.4984</v>
+        <v>269.7865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6436</v>
+        <v>0.3936</v>
       </c>
       <c r="B20" s="0">
-        <v>433.0094</v>
+        <v>263.5025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6933</v>
+        <v>0.347</v>
       </c>
       <c r="B21" s="0">
-        <v>439.7326</v>
+        <v>255.8908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7438</v>
+        <v>0.2978</v>
       </c>
       <c r="B22" s="0">
-        <v>446.4565</v>
+        <v>246.622</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7917</v>
+        <v>0.2576</v>
       </c>
       <c r="B23" s="0">
-        <v>452.7851</v>
+        <v>238.0133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8154</v>
+        <v>0.1966</v>
       </c>
       <c r="B24" s="0">
-        <v>454.7697</v>
+        <v>225.1006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8441</v>
+        <v>0.1749</v>
       </c>
       <c r="B25" s="0">
-        <v>459.5104</v>
+        <v>220.4652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8701</v>
+        <v>0.1554</v>
       </c>
       <c r="B26" s="0">
-        <v>463.4627</v>
+        <v>214.5026</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8943</v>
+        <v>0.1342</v>
       </c>
       <c r="B27" s="0">
-        <v>468.5931</v>
+        <v>208.5406</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9211</v>
+        <v>0.1179</v>
       </c>
       <c r="B28" s="0">
-        <v>472.5461</v>
+        <v>204.8983</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.943</v>
+        <v>0.0981</v>
       </c>
       <c r="B29" s="0">
-        <v>479.2475</v>
+        <v>196.6145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9585</v>
+        <v>0.0759</v>
       </c>
       <c r="B30" s="0">
-        <v>483.9779</v>
+        <v>189.3263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9681</v>
+        <v>0.0569</v>
       </c>
       <c r="B31" s="0">
-        <v>491.4559</v>
+        <v>181.7055</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9681</v>
+        <v>0.0285</v>
       </c>
       <c r="B32" s="0">
-        <v>491.4559</v>
+        <v>164.8026</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9799</v>
+        <v>0.0077</v>
       </c>
       <c r="B33" s="0">
-        <v>498.5426</v>
+        <v>145.9075</v>
       </c>
     </row>
     <row r="34"/>
@@ -6115,7 +9409,283 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0077</v>
+      </c>
+      <c r="B3" s="0">
+        <v>227.6601</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0269</v>
+      </c>
+      <c r="B4" s="0">
+        <v>254.4117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0761</v>
+      </c>
+      <c r="B5" s="0">
+        <v>292.5893</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0971</v>
+      </c>
+      <c r="B6" s="0">
+        <v>302.0423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.119</v>
+      </c>
+      <c r="B7" s="0">
+        <v>313.4618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.134</v>
+      </c>
+      <c r="B8" s="0">
+        <v>319.3714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1568</v>
+      </c>
+      <c r="B9" s="0">
+        <v>329.219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1768</v>
+      </c>
+      <c r="B10" s="0">
+        <v>337.4916</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1983</v>
+      </c>
+      <c r="B11" s="0">
+        <v>344.5858</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2621</v>
+      </c>
+      <c r="B12" s="0">
+        <v>365.4748</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3031</v>
+      </c>
+      <c r="B13" s="0">
+        <v>376.123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3532</v>
+      </c>
+      <c r="B14" s="0">
+        <v>387.1716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3929</v>
+      </c>
+      <c r="B15" s="0">
+        <v>396.6392</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.443</v>
+      </c>
+      <c r="B16" s="0">
+        <v>403.3628</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4913</v>
+      </c>
+      <c r="B17" s="0">
+        <v>412.0509</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5419</v>
+      </c>
+      <c r="B18" s="0">
+        <v>418.3816</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5921</v>
+      </c>
+      <c r="B19" s="0">
+        <v>425.4984</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6436</v>
+      </c>
+      <c r="B20" s="0">
+        <v>433.0094</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6933</v>
+      </c>
+      <c r="B21" s="0">
+        <v>439.7326</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7438</v>
+      </c>
+      <c r="B22" s="0">
+        <v>446.4565</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7917</v>
+      </c>
+      <c r="B23" s="0">
+        <v>452.7851</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8154</v>
+      </c>
+      <c r="B24" s="0">
+        <v>454.7697</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8441</v>
+      </c>
+      <c r="B25" s="0">
+        <v>459.5104</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8701</v>
+      </c>
+      <c r="B26" s="0">
+        <v>463.4627</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8943</v>
+      </c>
+      <c r="B27" s="0">
+        <v>468.5931</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9211</v>
+      </c>
+      <c r="B28" s="0">
+        <v>472.5461</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.943</v>
+      </c>
+      <c r="B29" s="0">
+        <v>479.2475</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9585</v>
+      </c>
+      <c r="B30" s="0">
+        <v>483.9779</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9681</v>
+      </c>
+      <c r="B31" s="0">
+        <v>491.4559</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9681</v>
+      </c>
+      <c r="B32" s="0">
+        <v>491.4559</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9799</v>
+      </c>
+      <c r="B33" s="0">
+        <v>498.5426</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -6125,7 +9695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -6369,858 +9939,6 @@
       </c>
     </row>
     <row r="32"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0087</v>
-      </c>
-      <c r="B3" s="0">
-        <v>148.6307</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0278</v>
-      </c>
-      <c r="B4" s="0">
-        <v>162.8004</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0588</v>
-      </c>
-      <c r="B5" s="0">
-        <v>172.2612</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0807</v>
-      </c>
-      <c r="B6" s="0">
-        <v>174.2443</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1016</v>
-      </c>
-      <c r="B7" s="0">
-        <v>177.0131</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1231</v>
-      </c>
-      <c r="B8" s="0">
-        <v>178.2095</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1454</v>
-      </c>
-      <c r="B9" s="0">
-        <v>180.9793</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1677</v>
-      </c>
-      <c r="B10" s="0">
-        <v>183.356</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.186</v>
-      </c>
-      <c r="B11" s="0">
-        <v>183.7635</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2051</v>
-      </c>
-      <c r="B12" s="0">
-        <v>184.565</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2466</v>
-      </c>
-      <c r="B13" s="0">
-        <v>184.5976</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3017</v>
-      </c>
-      <c r="B14" s="0">
-        <v>185.4273</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3482</v>
-      </c>
-      <c r="B15" s="0">
-        <v>188.2162</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3974</v>
-      </c>
-      <c r="B16" s="0">
-        <v>188.2549</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.449</v>
-      </c>
-      <c r="B17" s="0">
-        <v>188.2954</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4982</v>
-      </c>
-      <c r="B18" s="0">
-        <v>188.3341</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5479</v>
-      </c>
-      <c r="B19" s="0">
-        <v>190.3391</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5994</v>
-      </c>
-      <c r="B20" s="0">
-        <v>190.7728</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6486</v>
-      </c>
-      <c r="B21" s="0">
-        <v>190.4183</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6978</v>
-      </c>
-      <c r="B22" s="0">
-        <v>190.8502</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7466</v>
-      </c>
-      <c r="B23" s="0">
-        <v>190.8885</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7985</v>
-      </c>
-      <c r="B24" s="0">
-        <v>190.9294</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B25" s="0">
-        <v>190.9462</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8482</v>
-      </c>
-      <c r="B26" s="0">
-        <v>191.3616</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8742</v>
-      </c>
-      <c r="B27" s="0">
-        <v>190.9889</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8993</v>
-      </c>
-      <c r="B28" s="0">
-        <v>191.795</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9221</v>
-      </c>
-      <c r="B29" s="0">
-        <v>192.2061</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9476</v>
-      </c>
-      <c r="B30" s="0">
-        <v>193.0125</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9576</v>
-      </c>
-      <c r="B31" s="0">
-        <v>196.1659</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9654</v>
-      </c>
-      <c r="B32" s="0">
-        <v>196.172</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9745</v>
-      </c>
-      <c r="B33" s="0">
-        <v>196.1791</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9813</v>
-      </c>
-      <c r="B34" s="0">
-        <v>197.7573</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9891</v>
-      </c>
-      <c r="B35" s="0">
-        <v>198.1565</v>
-      </c>
-    </row>
-    <row r="36"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0068</v>
-      </c>
-      <c r="B3" s="0">
-        <v>242.2072</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0251</v>
-      </c>
-      <c r="B4" s="0">
-        <v>264.2399</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0588</v>
-      </c>
-      <c r="B5" s="0">
-        <v>279.6006</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0798</v>
-      </c>
-      <c r="B6" s="0">
-        <v>283.1558</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0998</v>
-      </c>
-      <c r="B7" s="0">
-        <v>286.7102</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.124</v>
-      </c>
-      <c r="B8" s="0">
-        <v>291.0542</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.15</v>
-      </c>
-      <c r="B9" s="0">
-        <v>293.827</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1673</v>
-      </c>
-      <c r="B10" s="0">
-        <v>295.8065</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1864</v>
-      </c>
-      <c r="B11" s="0">
-        <v>295.0352</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2042</v>
-      </c>
-      <c r="B12" s="0">
-        <v>295.8355</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2484</v>
-      </c>
-      <c r="B13" s="0">
-        <v>297.443</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3031</v>
-      </c>
-      <c r="B14" s="0">
-        <v>299.8452</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3482</v>
-      </c>
-      <c r="B15" s="0">
-        <v>300.2738</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3979</v>
-      </c>
-      <c r="B16" s="0">
-        <v>302.672</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4476</v>
-      </c>
-      <c r="B17" s="0">
-        <v>302.7111</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4968</v>
-      </c>
-      <c r="B18" s="0">
-        <v>305.5021</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.546</v>
-      </c>
-      <c r="B19" s="0">
-        <v>305.1476</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5985</v>
-      </c>
-      <c r="B20" s="0">
-        <v>304.4025</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6655</v>
-      </c>
-      <c r="B21" s="0">
-        <v>305.2415</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.696</v>
-      </c>
-      <c r="B22" s="0">
-        <v>305.6587</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7457</v>
-      </c>
-      <c r="B23" s="0">
-        <v>306.8773</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7976</v>
-      </c>
-      <c r="B24" s="0">
-        <v>307.3114</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8181</v>
-      </c>
-      <c r="B25" s="0">
-        <v>306.9343</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8469</v>
-      </c>
-      <c r="B26" s="0">
-        <v>307.3501</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8719</v>
-      </c>
-      <c r="B27" s="0">
-        <v>307.3698</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8979</v>
-      </c>
-      <c r="B28" s="0">
-        <v>307.3902</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9216</v>
-      </c>
-      <c r="B29" s="0">
-        <v>307.4089</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9448</v>
-      </c>
-      <c r="B30" s="0">
-        <v>309.3931</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.959</v>
-      </c>
-      <c r="B31" s="0">
-        <v>310.5837</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9699</v>
-      </c>
-      <c r="B32" s="0">
-        <v>313.7378</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9799</v>
-      </c>
-      <c r="B33" s="0">
-        <v>315.3184</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9868</v>
-      </c>
-      <c r="B34" s="0">
-        <v>318.4693</v>
-      </c>
-    </row>
-    <row r="35"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0073</v>
-      </c>
-      <c r="B3" s="0">
-        <v>268.9441</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0278</v>
-      </c>
-      <c r="B4" s="0">
-        <v>296.8764</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0597</v>
-      </c>
-      <c r="B5" s="0">
-        <v>318.1335</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1003</v>
-      </c>
-      <c r="B6" s="0">
-        <v>333.1064</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1226</v>
-      </c>
-      <c r="B7" s="0">
-        <v>337.0558</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1454</v>
-      </c>
-      <c r="B8" s="0">
-        <v>342.1851</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.17</v>
-      </c>
-      <c r="B9" s="0">
-        <v>344.1704</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1896</v>
-      </c>
-      <c r="B10" s="0">
-        <v>348.5108</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2101</v>
-      </c>
-      <c r="B11" s="0">
-        <v>349.7065</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2493</v>
-      </c>
-      <c r="B12" s="0">
-        <v>352.4896</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3013</v>
-      </c>
-      <c r="B13" s="0">
-        <v>355.676</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.356</v>
-      </c>
-      <c r="B14" s="0">
-        <v>358.0781</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3947</v>
-      </c>
-      <c r="B15" s="0">
-        <v>360.0745</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4485</v>
-      </c>
-      <c r="B16" s="0">
-        <v>361.6895</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4982</v>
-      </c>
-      <c r="B17" s="0">
-        <v>363.6945</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5483</v>
-      </c>
-      <c r="B18" s="0">
-        <v>364.5203</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5975</v>
-      </c>
-      <c r="B19" s="0">
-        <v>366.9181</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6468</v>
-      </c>
-      <c r="B20" s="0">
-        <v>366.9568</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6974</v>
-      </c>
-      <c r="B21" s="0">
-        <v>366.9966</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.747</v>
-      </c>
-      <c r="B22" s="0">
-        <v>367.4289</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7985</v>
-      </c>
-      <c r="B23" s="0">
-        <v>367.8625</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B24" s="0">
-        <v>369.4521</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8487</v>
-      </c>
-      <c r="B25" s="0">
-        <v>369.4747</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8724</v>
-      </c>
-      <c r="B26" s="0">
-        <v>371.4593</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8993</v>
-      </c>
-      <c r="B27" s="0">
-        <v>371.4804</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.923</v>
-      </c>
-      <c r="B28" s="0">
-        <v>373.0718</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.949</v>
-      </c>
-      <c r="B29" s="0">
-        <v>375.8445</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9617</v>
-      </c>
-      <c r="B30" s="0">
-        <v>377.4273</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9727</v>
-      </c>
-      <c r="B31" s="0">
-        <v>379.0086</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9818</v>
-      </c>
-      <c r="B32" s="0">
-        <v>382.1613</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9881</v>
-      </c>
-      <c r="B33" s="0">
-        <v>388.0641</v>
-      </c>
-    </row>
-    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7250,6 +9968,858 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>0.0087</v>
+      </c>
+      <c r="B3" s="0">
+        <v>148.6307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0278</v>
+      </c>
+      <c r="B4" s="0">
+        <v>162.8004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0588</v>
+      </c>
+      <c r="B5" s="0">
+        <v>172.2612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0807</v>
+      </c>
+      <c r="B6" s="0">
+        <v>174.2443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1016</v>
+      </c>
+      <c r="B7" s="0">
+        <v>177.0131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1231</v>
+      </c>
+      <c r="B8" s="0">
+        <v>178.2095</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1454</v>
+      </c>
+      <c r="B9" s="0">
+        <v>180.9793</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1677</v>
+      </c>
+      <c r="B10" s="0">
+        <v>183.356</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.186</v>
+      </c>
+      <c r="B11" s="0">
+        <v>183.7635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2051</v>
+      </c>
+      <c r="B12" s="0">
+        <v>184.565</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2466</v>
+      </c>
+      <c r="B13" s="0">
+        <v>184.5976</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3017</v>
+      </c>
+      <c r="B14" s="0">
+        <v>185.4273</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3482</v>
+      </c>
+      <c r="B15" s="0">
+        <v>188.2162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3974</v>
+      </c>
+      <c r="B16" s="0">
+        <v>188.2549</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.449</v>
+      </c>
+      <c r="B17" s="0">
+        <v>188.2954</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4982</v>
+      </c>
+      <c r="B18" s="0">
+        <v>188.3341</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5479</v>
+      </c>
+      <c r="B19" s="0">
+        <v>190.3391</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5994</v>
+      </c>
+      <c r="B20" s="0">
+        <v>190.7728</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6486</v>
+      </c>
+      <c r="B21" s="0">
+        <v>190.4183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6978</v>
+      </c>
+      <c r="B22" s="0">
+        <v>190.8502</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7466</v>
+      </c>
+      <c r="B23" s="0">
+        <v>190.8885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7985</v>
+      </c>
+      <c r="B24" s="0">
+        <v>190.9294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B25" s="0">
+        <v>190.9462</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8482</v>
+      </c>
+      <c r="B26" s="0">
+        <v>191.3616</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8742</v>
+      </c>
+      <c r="B27" s="0">
+        <v>190.9889</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8993</v>
+      </c>
+      <c r="B28" s="0">
+        <v>191.795</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9221</v>
+      </c>
+      <c r="B29" s="0">
+        <v>192.2061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9476</v>
+      </c>
+      <c r="B30" s="0">
+        <v>193.0125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9576</v>
+      </c>
+      <c r="B31" s="0">
+        <v>196.1659</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9654</v>
+      </c>
+      <c r="B32" s="0">
+        <v>196.172</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9745</v>
+      </c>
+      <c r="B33" s="0">
+        <v>196.1791</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9813</v>
+      </c>
+      <c r="B34" s="0">
+        <v>197.7573</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.9891</v>
+      </c>
+      <c r="B35" s="0">
+        <v>198.1565</v>
+      </c>
+    </row>
+    <row r="36"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0068</v>
+      </c>
+      <c r="B3" s="0">
+        <v>242.2072</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0251</v>
+      </c>
+      <c r="B4" s="0">
+        <v>264.2399</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0588</v>
+      </c>
+      <c r="B5" s="0">
+        <v>279.6006</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0798</v>
+      </c>
+      <c r="B6" s="0">
+        <v>283.1558</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0998</v>
+      </c>
+      <c r="B7" s="0">
+        <v>286.7102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.124</v>
+      </c>
+      <c r="B8" s="0">
+        <v>291.0542</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.15</v>
+      </c>
+      <c r="B9" s="0">
+        <v>293.827</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1673</v>
+      </c>
+      <c r="B10" s="0">
+        <v>295.8065</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1864</v>
+      </c>
+      <c r="B11" s="0">
+        <v>295.0352</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2042</v>
+      </c>
+      <c r="B12" s="0">
+        <v>295.8355</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2484</v>
+      </c>
+      <c r="B13" s="0">
+        <v>297.443</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3031</v>
+      </c>
+      <c r="B14" s="0">
+        <v>299.8452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3482</v>
+      </c>
+      <c r="B15" s="0">
+        <v>300.2738</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3979</v>
+      </c>
+      <c r="B16" s="0">
+        <v>302.672</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4476</v>
+      </c>
+      <c r="B17" s="0">
+        <v>302.7111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4968</v>
+      </c>
+      <c r="B18" s="0">
+        <v>305.5021</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.546</v>
+      </c>
+      <c r="B19" s="0">
+        <v>305.1476</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5985</v>
+      </c>
+      <c r="B20" s="0">
+        <v>304.4025</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6655</v>
+      </c>
+      <c r="B21" s="0">
+        <v>305.2415</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.696</v>
+      </c>
+      <c r="B22" s="0">
+        <v>305.6587</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7457</v>
+      </c>
+      <c r="B23" s="0">
+        <v>306.8773</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7976</v>
+      </c>
+      <c r="B24" s="0">
+        <v>307.3114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8181</v>
+      </c>
+      <c r="B25" s="0">
+        <v>306.9343</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8469</v>
+      </c>
+      <c r="B26" s="0">
+        <v>307.3501</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8719</v>
+      </c>
+      <c r="B27" s="0">
+        <v>307.3698</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8979</v>
+      </c>
+      <c r="B28" s="0">
+        <v>307.3902</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9216</v>
+      </c>
+      <c r="B29" s="0">
+        <v>307.4089</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9448</v>
+      </c>
+      <c r="B30" s="0">
+        <v>309.3931</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.959</v>
+      </c>
+      <c r="B31" s="0">
+        <v>310.5837</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9699</v>
+      </c>
+      <c r="B32" s="0">
+        <v>313.7378</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9799</v>
+      </c>
+      <c r="B33" s="0">
+        <v>315.3184</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9868</v>
+      </c>
+      <c r="B34" s="0">
+        <v>318.4693</v>
+      </c>
+    </row>
+    <row r="35"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0073</v>
+      </c>
+      <c r="B3" s="0">
+        <v>268.9441</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0278</v>
+      </c>
+      <c r="B4" s="0">
+        <v>296.8764</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0597</v>
+      </c>
+      <c r="B5" s="0">
+        <v>318.1335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1003</v>
+      </c>
+      <c r="B6" s="0">
+        <v>333.1064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1226</v>
+      </c>
+      <c r="B7" s="0">
+        <v>337.0558</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1454</v>
+      </c>
+      <c r="B8" s="0">
+        <v>342.1851</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.17</v>
+      </c>
+      <c r="B9" s="0">
+        <v>344.1704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1896</v>
+      </c>
+      <c r="B10" s="0">
+        <v>348.5108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2101</v>
+      </c>
+      <c r="B11" s="0">
+        <v>349.7065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2493</v>
+      </c>
+      <c r="B12" s="0">
+        <v>352.4896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3013</v>
+      </c>
+      <c r="B13" s="0">
+        <v>355.676</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.356</v>
+      </c>
+      <c r="B14" s="0">
+        <v>358.0781</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3947</v>
+      </c>
+      <c r="B15" s="0">
+        <v>360.0745</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4485</v>
+      </c>
+      <c r="B16" s="0">
+        <v>361.6895</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4982</v>
+      </c>
+      <c r="B17" s="0">
+        <v>363.6945</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5483</v>
+      </c>
+      <c r="B18" s="0">
+        <v>364.5203</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5975</v>
+      </c>
+      <c r="B19" s="0">
+        <v>366.9181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6468</v>
+      </c>
+      <c r="B20" s="0">
+        <v>366.9568</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6974</v>
+      </c>
+      <c r="B21" s="0">
+        <v>366.9966</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.747</v>
+      </c>
+      <c r="B22" s="0">
+        <v>367.4289</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7985</v>
+      </c>
+      <c r="B23" s="0">
+        <v>367.8625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B24" s="0">
+        <v>369.4521</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8487</v>
+      </c>
+      <c r="B25" s="0">
+        <v>369.4747</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8724</v>
+      </c>
+      <c r="B26" s="0">
+        <v>371.4593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8993</v>
+      </c>
+      <c r="B27" s="0">
+        <v>371.4804</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.923</v>
+      </c>
+      <c r="B28" s="0">
+        <v>373.0718</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.949</v>
+      </c>
+      <c r="B29" s="0">
+        <v>375.8445</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9617</v>
+      </c>
+      <c r="B30" s="0">
+        <v>377.4273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9727</v>
+      </c>
+      <c r="B31" s="0">
+        <v>379.0086</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9818</v>
+      </c>
+      <c r="B32" s="0">
+        <v>382.1613</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9881</v>
+      </c>
+      <c r="B33" s="0">
+        <v>388.0641</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>0.0064</v>
       </c>
       <c r="B3" s="0">

--- a/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 133 Preparation, structural evaluation and/Data133_all_graphs_excel.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 OPZn5  0&amp;1&amp;0&amp;450 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 OPZn8  0&amp;1&amp;0&amp;450 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 OPZn9  0&amp;1&amp;0&amp;450 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 OPKC10  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_1 OPKC7  0&amp;1&amp;0&amp;600 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_1 OPKC8  0&amp;1&amp;0&amp;600 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2_1 OPKC85  0&amp;1&amp;0&amp;600 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 2_1 OPKC9  0&amp;1&amp;0&amp;600 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 2_1 OPKC95  0&amp;1&amp;0&amp;600 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 2_1 OPKC10  0&amp;1&amp;0&amp;600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 OPKC7  0&amp;1&amp;0&amp;600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 OPKC8  0&amp;1&amp;0&amp;600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 OPKC85  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 OPKC9  0&amp;1&amp;0&amp;600 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_1 OPKC95  0&amp;1&amp;0&amp;600 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 OPZn5  0&amp;1&amp;0&amp;450 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_2 OPZn8  0&amp;1&amp;0&amp;450 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_2 OPZn9  0&amp;1&amp;0&amp;450 " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -22,22 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>OPZn5</t>
+    <t>OPKC10</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>OPZn8</t>
-  </si>
-  <si>
-    <t>OPZn9</t>
-  </si>
-  <si>
-    <t>OPKC10</t>
   </si>
   <si>
     <t>OPKC7</t>
@@ -53,6 +44,15 @@
   </si>
   <si>
     <t>OPKC95</t>
+  </si>
+  <si>
+    <t>OPZn5</t>
+  </si>
+  <si>
+    <t>OPZn8</t>
+  </si>
+  <si>
+    <t>OPZn9</t>
   </si>
 </sst>
 </file>
@@ -97,948 +97,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPZn5 z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 OPZn5  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 OPZn5  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPZn8 z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 OPZn8  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 OPZn8  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki OPZn9 z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 OPZn9  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 OPZn9  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1352,7 +410,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1666,7 +724,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1980,7 +1038,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2294,7 +1352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2608,7 +1666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2790,6 +1848,948 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki OPZn5 z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 OPZn5  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 OPZn5  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki OPZn8 z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 OPZn8  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 OPZn8  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki OPZn9 z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 OPZn9  0&amp;1&amp;0&amp;450 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 OPZn9  0&amp;1&amp;0&amp;450 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8583,6 +8583,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0077</v>
+      </c>
+      <c r="B3" s="0">
+        <v>227.6601</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0269</v>
+      </c>
+      <c r="B4" s="0">
+        <v>254.4117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0761</v>
+      </c>
+      <c r="B5" s="0">
+        <v>292.5893</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0971</v>
+      </c>
+      <c r="B6" s="0">
+        <v>302.0423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.119</v>
+      </c>
+      <c r="B7" s="0">
+        <v>313.4618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.134</v>
+      </c>
+      <c r="B8" s="0">
+        <v>319.3714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1568</v>
+      </c>
+      <c r="B9" s="0">
+        <v>329.219</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1768</v>
+      </c>
+      <c r="B10" s="0">
+        <v>337.4916</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1983</v>
+      </c>
+      <c r="B11" s="0">
+        <v>344.5858</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2621</v>
+      </c>
+      <c r="B12" s="0">
+        <v>365.4748</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3031</v>
+      </c>
+      <c r="B13" s="0">
+        <v>376.123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3532</v>
+      </c>
+      <c r="B14" s="0">
+        <v>387.1716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3929</v>
+      </c>
+      <c r="B15" s="0">
+        <v>396.6392</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.443</v>
+      </c>
+      <c r="B16" s="0">
+        <v>403.3628</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4913</v>
+      </c>
+      <c r="B17" s="0">
+        <v>412.0509</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5419</v>
+      </c>
+      <c r="B18" s="0">
+        <v>418.3816</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5921</v>
+      </c>
+      <c r="B19" s="0">
+        <v>425.4984</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6436</v>
+      </c>
+      <c r="B20" s="0">
+        <v>433.0094</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6933</v>
+      </c>
+      <c r="B21" s="0">
+        <v>439.7326</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7438</v>
+      </c>
+      <c r="B22" s="0">
+        <v>446.4565</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7917</v>
+      </c>
+      <c r="B23" s="0">
+        <v>452.7851</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8154</v>
+      </c>
+      <c r="B24" s="0">
+        <v>454.7697</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8441</v>
+      </c>
+      <c r="B25" s="0">
+        <v>459.5104</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8701</v>
+      </c>
+      <c r="B26" s="0">
+        <v>463.4627</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8943</v>
+      </c>
+      <c r="B27" s="0">
+        <v>468.5931</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9211</v>
+      </c>
+      <c r="B28" s="0">
+        <v>472.5461</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.943</v>
+      </c>
+      <c r="B29" s="0">
+        <v>479.2475</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9585</v>
+      </c>
+      <c r="B30" s="0">
+        <v>483.9779</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9681</v>
+      </c>
+      <c r="B31" s="0">
+        <v>491.4559</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9681</v>
+      </c>
+      <c r="B32" s="0">
+        <v>491.4559</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9799</v>
+      </c>
+      <c r="B33" s="0">
+        <v>498.5426</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0082</v>
+      </c>
+      <c r="B3" s="0">
+        <v>128.1847</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0301</v>
+      </c>
+      <c r="B4" s="0">
+        <v>137.6383</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.062</v>
+      </c>
+      <c r="B5" s="0">
+        <v>140.0225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.082</v>
+      </c>
+      <c r="B6" s="0">
+        <v>140.0383</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1021</v>
+      </c>
+      <c r="B7" s="0">
+        <v>142.8064</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1217</v>
+      </c>
+      <c r="B8" s="0">
+        <v>142.0354</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1413</v>
+      </c>
+      <c r="B9" s="0">
+        <v>142.444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1604</v>
+      </c>
+      <c r="B10" s="0">
+        <v>142.8522</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1796</v>
+      </c>
+      <c r="B11" s="0">
+        <v>142.8673</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2001</v>
+      </c>
+      <c r="B12" s="0">
+        <v>144.4562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2489</v>
+      </c>
+      <c r="B13" s="0">
+        <v>144.4945</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2985</v>
+      </c>
+      <c r="B14" s="0">
+        <v>143.7472</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3683</v>
+      </c>
+      <c r="B15" s="0">
+        <v>144.1952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4202</v>
+      </c>
+      <c r="B16" s="0">
+        <v>144.2361</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4699</v>
+      </c>
+      <c r="B17" s="0">
+        <v>142.7024</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5191</v>
+      </c>
+      <c r="B18" s="0">
+        <v>143.1343</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5697</v>
+      </c>
+      <c r="B19" s="0">
+        <v>143.5673</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6199</v>
+      </c>
+      <c r="B20" s="0">
+        <v>143.6067</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6718</v>
+      </c>
+      <c r="B21" s="0">
+        <v>142.8612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7211</v>
+      </c>
+      <c r="B22" s="0">
+        <v>143.2931</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7698</v>
+      </c>
+      <c r="B23" s="0">
+        <v>141.3655</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8195</v>
+      </c>
+      <c r="B24" s="0">
+        <v>141.0114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8751</v>
+      </c>
+      <c r="B25" s="0">
+        <v>141.0551</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8993</v>
+      </c>
+      <c r="B26" s="0">
+        <v>143.4332</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.9398</v>
+      </c>
+      <c r="B27" s="0">
+        <v>143.072</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9572</v>
+      </c>
+      <c r="B28" s="0">
+        <v>142.2992</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9681</v>
+      </c>
+      <c r="B29" s="0">
+        <v>143.0942</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.979</v>
+      </c>
+      <c r="B30" s="0">
+        <v>146.2483</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9886</v>
+      </c>
+      <c r="B31" s="0">
+        <v>149.0081</v>
+      </c>
+    </row>
+    <row r="32"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0087</v>
+      </c>
+      <c r="B3" s="0">
+        <v>148.6307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0278</v>
+      </c>
+      <c r="B4" s="0">
+        <v>162.8004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0588</v>
+      </c>
+      <c r="B5" s="0">
+        <v>172.2612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0807</v>
+      </c>
+      <c r="B6" s="0">
+        <v>174.2443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1016</v>
+      </c>
+      <c r="B7" s="0">
+        <v>177.0131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1231</v>
+      </c>
+      <c r="B8" s="0">
+        <v>178.2095</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1454</v>
+      </c>
+      <c r="B9" s="0">
+        <v>180.9793</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1677</v>
+      </c>
+      <c r="B10" s="0">
+        <v>183.356</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.186</v>
+      </c>
+      <c r="B11" s="0">
+        <v>183.7635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2051</v>
+      </c>
+      <c r="B12" s="0">
+        <v>184.565</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2466</v>
+      </c>
+      <c r="B13" s="0">
+        <v>184.5976</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3017</v>
+      </c>
+      <c r="B14" s="0">
+        <v>185.4273</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3482</v>
+      </c>
+      <c r="B15" s="0">
+        <v>188.2162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3974</v>
+      </c>
+      <c r="B16" s="0">
+        <v>188.2549</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.449</v>
+      </c>
+      <c r="B17" s="0">
+        <v>188.2954</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4982</v>
+      </c>
+      <c r="B18" s="0">
+        <v>188.3341</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5479</v>
+      </c>
+      <c r="B19" s="0">
+        <v>190.3391</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5994</v>
+      </c>
+      <c r="B20" s="0">
+        <v>190.7728</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6486</v>
+      </c>
+      <c r="B21" s="0">
+        <v>190.4183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6978</v>
+      </c>
+      <c r="B22" s="0">
+        <v>190.8502</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7466</v>
+      </c>
+      <c r="B23" s="0">
+        <v>190.8885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7985</v>
+      </c>
+      <c r="B24" s="0">
+        <v>190.9294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B25" s="0">
+        <v>190.9462</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8482</v>
+      </c>
+      <c r="B26" s="0">
+        <v>191.3616</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8742</v>
+      </c>
+      <c r="B27" s="0">
+        <v>190.9889</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8993</v>
+      </c>
+      <c r="B28" s="0">
+        <v>191.795</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9221</v>
+      </c>
+      <c r="B29" s="0">
+        <v>192.2061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9476</v>
+      </c>
+      <c r="B30" s="0">
+        <v>193.0125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9576</v>
+      </c>
+      <c r="B31" s="0">
+        <v>196.1659</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9654</v>
+      </c>
+      <c r="B32" s="0">
+        <v>196.172</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9745</v>
+      </c>
+      <c r="B33" s="0">
+        <v>196.1791</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.9813</v>
+      </c>
+      <c r="B34" s="0">
+        <v>197.7573</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.9891</v>
+      </c>
+      <c r="B35" s="0">
+        <v>198.1565</v>
+      </c>
+    </row>
+    <row r="36"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8591,7 +9419,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -8607,255 +9435,255 @@
         <v>0.0068</v>
       </c>
       <c r="B3" s="0">
-        <v>206.2616</v>
+        <v>242.2072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0262</v>
+        <v>0.0251</v>
       </c>
       <c r="B4" s="0">
-        <v>242.7327</v>
+        <v>264.2399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0542</v>
+        <v>0.0588</v>
       </c>
       <c r="B5" s="0">
-        <v>270.5789</v>
+        <v>279.6006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.075</v>
+        <v>0.0798</v>
       </c>
       <c r="B6" s="0">
-        <v>284.1682</v>
+        <v>283.1558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0967</v>
+        <v>0.0998</v>
       </c>
       <c r="B7" s="0">
-        <v>295.7675</v>
+        <v>286.7102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1161</v>
+        <v>0.124</v>
       </c>
       <c r="B8" s="0">
-        <v>307.3675</v>
+        <v>291.0542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1319</v>
+        <v>0.15</v>
       </c>
       <c r="B9" s="0">
-        <v>312.9997</v>
+        <v>293.827</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1604</v>
+        <v>0.1673</v>
       </c>
       <c r="B10" s="0">
-        <v>326.5865</v>
+        <v>295.8065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1762</v>
+        <v>0.1864</v>
       </c>
       <c r="B11" s="0">
-        <v>332.2186</v>
+        <v>295.0352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1952</v>
+        <v>0.2042</v>
       </c>
       <c r="B12" s="0">
-        <v>339.1762</v>
+        <v>295.8355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2508</v>
+        <v>0.2484</v>
       </c>
       <c r="B13" s="0">
-        <v>358.723</v>
+        <v>297.443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2924</v>
+        <v>0.3031</v>
       </c>
       <c r="B14" s="0">
-        <v>371.6422</v>
+        <v>299.8452</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3493</v>
+        <v>0.3482</v>
       </c>
       <c r="B15" s="0">
-        <v>385.5511</v>
+        <v>300.2738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3963</v>
+        <v>0.3979</v>
       </c>
       <c r="B16" s="0">
-        <v>395.1523</v>
+        <v>302.672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4424</v>
+        <v>0.4476</v>
       </c>
       <c r="B17" s="0">
-        <v>403.4274</v>
+        <v>302.7111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4894</v>
+        <v>0.4968</v>
       </c>
       <c r="B18" s="0">
-        <v>412.0337</v>
+        <v>305.5021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5409</v>
+        <v>0.546</v>
       </c>
       <c r="B19" s="0">
-        <v>415.6644</v>
+        <v>305.1476</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5956</v>
+        <v>0.5985</v>
       </c>
       <c r="B20" s="0">
-        <v>421.2837</v>
+        <v>304.4025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6453</v>
+        <v>0.6655</v>
       </c>
       <c r="B21" s="0">
-        <v>423.5885</v>
+        <v>305.2415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6909</v>
+        <v>0.696</v>
       </c>
       <c r="B22" s="0">
-        <v>426.5579</v>
+        <v>305.6587</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7438</v>
+        <v>0.7457</v>
       </c>
       <c r="B23" s="0">
-        <v>429.1933</v>
+        <v>306.8773</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7944</v>
+        <v>0.7976</v>
       </c>
       <c r="B24" s="0">
-        <v>431.1662</v>
+        <v>307.3114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8156</v>
+        <v>0.8181</v>
       </c>
       <c r="B25" s="0">
-        <v>432.4856</v>
+        <v>306.9343</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8446</v>
+        <v>0.8469</v>
       </c>
       <c r="B26" s="0">
-        <v>433.8025</v>
+        <v>307.3501</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8708</v>
+        <v>0.8719</v>
       </c>
       <c r="B27" s="0">
-        <v>434.1254</v>
+        <v>307.3698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8961</v>
+        <v>0.8979</v>
       </c>
       <c r="B28" s="0">
-        <v>435.1118</v>
+        <v>307.3902</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9214</v>
+        <v>0.9216</v>
       </c>
       <c r="B29" s="0">
-        <v>437.0931</v>
+        <v>307.4089</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9453</v>
+        <v>0.9448</v>
       </c>
       <c r="B30" s="0">
-        <v>438.08</v>
+        <v>309.3931</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9562</v>
+        <v>0.959</v>
       </c>
       <c r="B31" s="0">
-        <v>438.7397</v>
+        <v>310.5837</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9643</v>
+        <v>0.9699</v>
       </c>
       <c r="B32" s="0">
-        <v>440.395</v>
+        <v>313.7378</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9747</v>
+        <v>0.9799</v>
       </c>
       <c r="B33" s="0">
-        <v>440.7232</v>
+        <v>315.3184</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9869</v>
+        <v>0.9868</v>
       </c>
       <c r="B34" s="0">
-        <v>442.0456</v>
+        <v>318.4693</v>
       </c>
     </row>
     <row r="35"/>
@@ -8865,275 +9693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9869</v>
-      </c>
-      <c r="B3" s="0">
-        <v>336.5924</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9553</v>
-      </c>
-      <c r="B4" s="0">
-        <v>333.6184</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9449</v>
-      </c>
-      <c r="B5" s="0">
-        <v>332.9586</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9218</v>
-      </c>
-      <c r="B6" s="0">
-        <v>331.3082</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.897</v>
-      </c>
-      <c r="B7" s="0">
-        <v>331.648</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8694</v>
-      </c>
-      <c r="B8" s="0">
-        <v>331.6572</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.8468</v>
-      </c>
-      <c r="B9" s="0">
-        <v>331.6647</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.8161</v>
-      </c>
-      <c r="B10" s="0">
-        <v>329.6852</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.7948</v>
-      </c>
-      <c r="B11" s="0">
-        <v>329.3606</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.7433</v>
-      </c>
-      <c r="B12" s="0">
-        <v>329.3777</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.6936</v>
-      </c>
-      <c r="B13" s="0">
-        <v>328.0677</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.6453</v>
-      </c>
-      <c r="B14" s="0">
-        <v>326.094</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.5933</v>
-      </c>
-      <c r="B15" s="0">
-        <v>323.79</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.5409</v>
-      </c>
-      <c r="B16" s="0">
-        <v>322.8125</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4953</v>
-      </c>
-      <c r="B17" s="0">
-        <v>318.1851</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4451</v>
-      </c>
-      <c r="B18" s="0">
-        <v>312.8959</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3918</v>
-      </c>
-      <c r="B19" s="0">
-        <v>304.6232</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3461</v>
-      </c>
-      <c r="B20" s="0">
-        <v>298.0061</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2964</v>
-      </c>
-      <c r="B21" s="0">
-        <v>287.7425</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.2535</v>
-      </c>
-      <c r="B22" s="0">
-        <v>278.4716</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1934</v>
-      </c>
-      <c r="B23" s="0">
-        <v>261.5792</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1731</v>
-      </c>
-      <c r="B24" s="0">
-        <v>256.9433</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1532</v>
-      </c>
-      <c r="B25" s="0">
-        <v>250.6493</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.1351</v>
-      </c>
-      <c r="B26" s="0">
-        <v>244.023</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.1161</v>
-      </c>
-      <c r="B27" s="0">
-        <v>240.7131</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0962</v>
-      </c>
-      <c r="B28" s="0">
-        <v>231.1029</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0746</v>
-      </c>
-      <c r="B29" s="0">
-        <v>221.8249</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0565</v>
-      </c>
-      <c r="B30" s="0">
-        <v>213.8722</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0271</v>
-      </c>
-      <c r="B31" s="0">
-        <v>194.98</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0068</v>
-      </c>
-      <c r="B32" s="0">
-        <v>172.437</v>
-      </c>
-    </row>
-    <row r="33"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -9143,7 +9703,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -9156,789 +9716,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9896</v>
+        <v>0.0073</v>
       </c>
       <c r="B3" s="0">
-        <v>294.4765</v>
+        <v>268.9441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9779</v>
+        <v>0.0278</v>
       </c>
       <c r="B4" s="0">
-        <v>294.1488</v>
+        <v>296.8764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9643</v>
+        <v>0.0597</v>
       </c>
       <c r="B5" s="0">
-        <v>293.4901</v>
+        <v>318.1335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.948</v>
+        <v>0.1003</v>
       </c>
       <c r="B6" s="0">
-        <v>292.8323</v>
+        <v>333.1064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9227</v>
+        <v>0.1226</v>
       </c>
       <c r="B7" s="0">
-        <v>292.1774</v>
+        <v>337.0558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8956</v>
+        <v>0.1454</v>
       </c>
       <c r="B8" s="0">
-        <v>290.86</v>
+        <v>342.1851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8712</v>
+        <v>0.17</v>
       </c>
       <c r="B9" s="0">
-        <v>290.2048</v>
+        <v>344.1704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8477</v>
+        <v>0.1896</v>
       </c>
       <c r="B10" s="0">
-        <v>290.8758</v>
+        <v>348.5108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8174</v>
+        <v>0.2101</v>
       </c>
       <c r="B11" s="0">
-        <v>288.233</v>
+        <v>349.7065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7958</v>
+        <v>0.2493</v>
       </c>
       <c r="B12" s="0">
-        <v>288.2402</v>
+        <v>352.4896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.746</v>
+        <v>0.3013</v>
       </c>
       <c r="B13" s="0">
-        <v>287.2618</v>
+        <v>355.676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.695</v>
+        <v>0.356</v>
       </c>
       <c r="B14" s="0">
-        <v>287.942</v>
+        <v>358.0781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6453</v>
+        <v>0.3947</v>
       </c>
       <c r="B15" s="0">
-        <v>285.9688</v>
+        <v>360.0745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5951</v>
+        <v>0.4485</v>
       </c>
       <c r="B16" s="0">
-        <v>282.6693</v>
+        <v>361.6895</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5459</v>
+        <v>0.4982</v>
       </c>
       <c r="B17" s="0">
-        <v>280.0327</v>
+        <v>363.6945</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4925</v>
+        <v>0.5483</v>
       </c>
       <c r="B18" s="0">
-        <v>276.071</v>
+        <v>364.5203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4437</v>
+        <v>0.5975</v>
       </c>
       <c r="B19" s="0">
-        <v>269.7865</v>
+        <v>366.9181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3936</v>
+        <v>0.6468</v>
       </c>
       <c r="B20" s="0">
-        <v>263.5025</v>
+        <v>366.9568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.347</v>
+        <v>0.6974</v>
       </c>
       <c r="B21" s="0">
-        <v>255.8908</v>
+        <v>366.9966</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2978</v>
+        <v>0.747</v>
       </c>
       <c r="B22" s="0">
-        <v>246.622</v>
+        <v>367.4289</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2576</v>
+        <v>0.7985</v>
       </c>
       <c r="B23" s="0">
-        <v>238.0133</v>
+        <v>367.8625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1966</v>
+        <v>0.82</v>
       </c>
       <c r="B24" s="0">
-        <v>225.1006</v>
+        <v>369.4521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1749</v>
+        <v>0.8487</v>
       </c>
       <c r="B25" s="0">
-        <v>220.4652</v>
+        <v>369.4747</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1554</v>
+        <v>0.8724</v>
       </c>
       <c r="B26" s="0">
-        <v>214.5026</v>
+        <v>371.4593</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1342</v>
+        <v>0.8993</v>
       </c>
       <c r="B27" s="0">
-        <v>208.5406</v>
+        <v>371.4804</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1179</v>
+        <v>0.923</v>
       </c>
       <c r="B28" s="0">
-        <v>204.8983</v>
+        <v>373.0718</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0981</v>
+        <v>0.949</v>
       </c>
       <c r="B29" s="0">
-        <v>196.6145</v>
+        <v>375.8445</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0759</v>
+        <v>0.9617</v>
       </c>
       <c r="B30" s="0">
-        <v>189.3263</v>
+        <v>377.4273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0569</v>
+        <v>0.9727</v>
       </c>
       <c r="B31" s="0">
-        <v>181.7055</v>
+        <v>379.0086</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0285</v>
+        <v>0.9818</v>
       </c>
       <c r="B32" s="0">
-        <v>164.8026</v>
+        <v>382.1613</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0077</v>
+        <v>0.9881</v>
       </c>
       <c r="B33" s="0">
-        <v>145.9075</v>
+        <v>388.0641</v>
       </c>
     </row>
     <row r="34"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0077</v>
-      </c>
-      <c r="B3" s="0">
-        <v>227.6601</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0269</v>
-      </c>
-      <c r="B4" s="0">
-        <v>254.4117</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0761</v>
-      </c>
-      <c r="B5" s="0">
-        <v>292.5893</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0971</v>
-      </c>
-      <c r="B6" s="0">
-        <v>302.0423</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.119</v>
-      </c>
-      <c r="B7" s="0">
-        <v>313.4618</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.134</v>
-      </c>
-      <c r="B8" s="0">
-        <v>319.3714</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1568</v>
-      </c>
-      <c r="B9" s="0">
-        <v>329.219</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1768</v>
-      </c>
-      <c r="B10" s="0">
-        <v>337.4916</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1983</v>
-      </c>
-      <c r="B11" s="0">
-        <v>344.5858</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2621</v>
-      </c>
-      <c r="B12" s="0">
-        <v>365.4748</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3031</v>
-      </c>
-      <c r="B13" s="0">
-        <v>376.123</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3532</v>
-      </c>
-      <c r="B14" s="0">
-        <v>387.1716</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3929</v>
-      </c>
-      <c r="B15" s="0">
-        <v>396.6392</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.443</v>
-      </c>
-      <c r="B16" s="0">
-        <v>403.3628</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4913</v>
-      </c>
-      <c r="B17" s="0">
-        <v>412.0509</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5419</v>
-      </c>
-      <c r="B18" s="0">
-        <v>418.3816</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5921</v>
-      </c>
-      <c r="B19" s="0">
-        <v>425.4984</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6436</v>
-      </c>
-      <c r="B20" s="0">
-        <v>433.0094</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6933</v>
-      </c>
-      <c r="B21" s="0">
-        <v>439.7326</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.7438</v>
-      </c>
-      <c r="B22" s="0">
-        <v>446.4565</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7917</v>
-      </c>
-      <c r="B23" s="0">
-        <v>452.7851</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.8154</v>
-      </c>
-      <c r="B24" s="0">
-        <v>454.7697</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8441</v>
-      </c>
-      <c r="B25" s="0">
-        <v>459.5104</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8701</v>
-      </c>
-      <c r="B26" s="0">
-        <v>463.4627</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8943</v>
-      </c>
-      <c r="B27" s="0">
-        <v>468.5931</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9211</v>
-      </c>
-      <c r="B28" s="0">
-        <v>472.5461</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.943</v>
-      </c>
-      <c r="B29" s="0">
-        <v>479.2475</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9585</v>
-      </c>
-      <c r="B30" s="0">
-        <v>483.9779</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9681</v>
-      </c>
-      <c r="B31" s="0">
-        <v>491.4559</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9681</v>
-      </c>
-      <c r="B32" s="0">
-        <v>491.4559</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9799</v>
-      </c>
-      <c r="B33" s="0">
-        <v>498.5426</v>
-      </c>
-    </row>
-    <row r="34"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0082</v>
-      </c>
-      <c r="B3" s="0">
-        <v>128.1847</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0301</v>
-      </c>
-      <c r="B4" s="0">
-        <v>137.6383</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.062</v>
-      </c>
-      <c r="B5" s="0">
-        <v>140.0225</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.082</v>
-      </c>
-      <c r="B6" s="0">
-        <v>140.0383</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1021</v>
-      </c>
-      <c r="B7" s="0">
-        <v>142.8064</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1217</v>
-      </c>
-      <c r="B8" s="0">
-        <v>142.0354</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1413</v>
-      </c>
-      <c r="B9" s="0">
-        <v>142.444</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1604</v>
-      </c>
-      <c r="B10" s="0">
-        <v>142.8522</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1796</v>
-      </c>
-      <c r="B11" s="0">
-        <v>142.8673</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2001</v>
-      </c>
-      <c r="B12" s="0">
-        <v>144.4562</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2489</v>
-      </c>
-      <c r="B13" s="0">
-        <v>144.4945</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2985</v>
-      </c>
-      <c r="B14" s="0">
-        <v>143.7472</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3683</v>
-      </c>
-      <c r="B15" s="0">
-        <v>144.1952</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4202</v>
-      </c>
-      <c r="B16" s="0">
-        <v>144.2361</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4699</v>
-      </c>
-      <c r="B17" s="0">
-        <v>142.7024</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5191</v>
-      </c>
-      <c r="B18" s="0">
-        <v>143.1343</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5697</v>
-      </c>
-      <c r="B19" s="0">
-        <v>143.5673</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6199</v>
-      </c>
-      <c r="B20" s="0">
-        <v>143.6067</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6718</v>
-      </c>
-      <c r="B21" s="0">
-        <v>142.8612</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.7211</v>
-      </c>
-      <c r="B22" s="0">
-        <v>143.2931</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7698</v>
-      </c>
-      <c r="B23" s="0">
-        <v>141.3655</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.8195</v>
-      </c>
-      <c r="B24" s="0">
-        <v>141.0114</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8751</v>
-      </c>
-      <c r="B25" s="0">
-        <v>141.0551</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8993</v>
-      </c>
-      <c r="B26" s="0">
-        <v>143.4332</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.9398</v>
-      </c>
-      <c r="B27" s="0">
-        <v>143.072</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9572</v>
-      </c>
-      <c r="B28" s="0">
-        <v>142.2992</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9681</v>
-      </c>
-      <c r="B29" s="0">
-        <v>143.0942</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.979</v>
-      </c>
-      <c r="B30" s="0">
-        <v>146.2483</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9886</v>
-      </c>
-      <c r="B31" s="0">
-        <v>149.0081</v>
-      </c>
-    </row>
-    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9968,210 +9992,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0087</v>
+        <v>0.0064</v>
       </c>
       <c r="B3" s="0">
-        <v>148.6307</v>
+        <v>262.6525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0278</v>
+        <v>0.0255</v>
       </c>
       <c r="B4" s="0">
-        <v>162.8004</v>
+        <v>296.0882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0588</v>
+        <v>0.0574</v>
       </c>
       <c r="B5" s="0">
-        <v>172.2612</v>
+        <v>319.3112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0807</v>
+        <v>0.0775</v>
       </c>
       <c r="B6" s="0">
-        <v>174.2443</v>
+        <v>333.8748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1016</v>
+        <v>0.0953</v>
       </c>
       <c r="B7" s="0">
-        <v>177.0131</v>
+        <v>345.2912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1231</v>
+        <v>0.1158</v>
       </c>
       <c r="B8" s="0">
-        <v>178.2095</v>
+        <v>355.9233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1454</v>
+        <v>0.1363</v>
       </c>
       <c r="B9" s="0">
-        <v>180.9793</v>
+        <v>365.3758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1677</v>
+        <v>0.1604</v>
       </c>
       <c r="B10" s="0">
-        <v>183.356</v>
+        <v>374.4381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.186</v>
+        <v>0.1805</v>
       </c>
       <c r="B11" s="0">
-        <v>183.7635</v>
+        <v>381.5312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2051</v>
+        <v>0.2037</v>
       </c>
       <c r="B12" s="0">
-        <v>184.565</v>
+        <v>390.1995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2466</v>
+        <v>0.2402</v>
       </c>
       <c r="B13" s="0">
-        <v>184.5976</v>
+        <v>401.2374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3017</v>
+        <v>0.2949</v>
       </c>
       <c r="B14" s="0">
-        <v>185.4273</v>
+        <v>414.6487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3482</v>
+        <v>0.3441</v>
       </c>
       <c r="B15" s="0">
-        <v>188.2162</v>
+        <v>424.517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3974</v>
+        <v>0.3906</v>
       </c>
       <c r="B16" s="0">
-        <v>188.2549</v>
+        <v>433.2036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.449</v>
+        <v>0.4426</v>
       </c>
       <c r="B17" s="0">
-        <v>188.2954</v>
+        <v>441.5014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4982</v>
+        <v>0.4918</v>
       </c>
       <c r="B18" s="0">
-        <v>188.3341</v>
+        <v>448.2242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5479</v>
+        <v>0.5438</v>
       </c>
       <c r="B19" s="0">
-        <v>190.3391</v>
+        <v>455.3424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5994</v>
+        <v>0.5957</v>
       </c>
       <c r="B20" s="0">
-        <v>190.7728</v>
+        <v>461.6742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6486</v>
+        <v>0.6449</v>
       </c>
       <c r="B21" s="0">
-        <v>190.4183</v>
+        <v>466.4311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6978</v>
+        <v>0.6942</v>
       </c>
       <c r="B22" s="0">
-        <v>190.8502</v>
+        <v>471.5813</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7466</v>
+        <v>0.7443</v>
       </c>
       <c r="B23" s="0">
-        <v>190.8885</v>
+        <v>475.9457</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7985</v>
+        <v>0.7944</v>
       </c>
       <c r="B24" s="0">
-        <v>190.9294</v>
+        <v>480.3102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.82</v>
+        <v>0.8154</v>
       </c>
       <c r="B25" s="0">
-        <v>190.9462</v>
+        <v>482.6858</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8482</v>
+        <v>0.8469</v>
       </c>
       <c r="B26" s="0">
-        <v>191.3616</v>
+        <v>484.2832</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8742</v>
+        <v>0.8715</v>
       </c>
       <c r="B27" s="0">
-        <v>190.9889</v>
+        <v>487.4481</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8993</v>
+        <v>0.8961</v>
       </c>
       <c r="B28" s="0">
-        <v>191.795</v>
+        <v>488.2538</v>
       </c>
     </row>
     <row r="29">
@@ -10179,55 +10203,55 @@
         <v>0.9221</v>
       </c>
       <c r="B29" s="0">
-        <v>192.2061</v>
+        <v>491.0265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9476</v>
+        <v>0.9426</v>
       </c>
       <c r="B30" s="0">
-        <v>193.0125</v>
+        <v>495.7609</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9576</v>
+        <v>0.9558</v>
       </c>
       <c r="B31" s="0">
-        <v>196.1659</v>
+        <v>500.4895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9654</v>
+        <v>0.9672</v>
       </c>
       <c r="B32" s="0">
-        <v>196.172</v>
+        <v>504.0371</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9745</v>
+        <v>0.9763</v>
       </c>
       <c r="B33" s="0">
-        <v>196.1791</v>
+        <v>508.7625</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9813</v>
+        <v>0.9863</v>
       </c>
       <c r="B34" s="0">
-        <v>197.7573</v>
+        <v>513.4886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9891</v>
+        <v>0.9936</v>
       </c>
       <c r="B35" s="0">
-        <v>198.1565</v>
+        <v>519.7853</v>
       </c>
     </row>
     <row r="36"/>
@@ -10263,255 +10287,255 @@
         <v>0.0068</v>
       </c>
       <c r="B3" s="0">
-        <v>242.2072</v>
+        <v>206.2616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0251</v>
+        <v>0.0262</v>
       </c>
       <c r="B4" s="0">
-        <v>264.2399</v>
+        <v>242.7327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0588</v>
+        <v>0.0542</v>
       </c>
       <c r="B5" s="0">
-        <v>279.6006</v>
+        <v>270.5789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0798</v>
+        <v>0.075</v>
       </c>
       <c r="B6" s="0">
-        <v>283.1558</v>
+        <v>284.1682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0998</v>
+        <v>0.0967</v>
       </c>
       <c r="B7" s="0">
-        <v>286.7102</v>
+        <v>295.7675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.124</v>
+        <v>0.1161</v>
       </c>
       <c r="B8" s="0">
-        <v>291.0542</v>
+        <v>307.3675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.15</v>
+        <v>0.1319</v>
       </c>
       <c r="B9" s="0">
-        <v>293.827</v>
+        <v>312.9997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1673</v>
+        <v>0.1604</v>
       </c>
       <c r="B10" s="0">
-        <v>295.8065</v>
+        <v>326.5865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1864</v>
+        <v>0.1762</v>
       </c>
       <c r="B11" s="0">
-        <v>295.0352</v>
+        <v>332.2186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2042</v>
+        <v>0.1952</v>
       </c>
       <c r="B12" s="0">
-        <v>295.8355</v>
+        <v>339.1762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2484</v>
+        <v>0.2508</v>
       </c>
       <c r="B13" s="0">
-        <v>297.443</v>
+        <v>358.723</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3031</v>
+        <v>0.2924</v>
       </c>
       <c r="B14" s="0">
-        <v>299.8452</v>
+        <v>371.6422</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3482</v>
+        <v>0.3493</v>
       </c>
       <c r="B15" s="0">
-        <v>300.2738</v>
+        <v>385.5511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3979</v>
+        <v>0.3963</v>
       </c>
       <c r="B16" s="0">
-        <v>302.672</v>
+        <v>395.1523</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4476</v>
+        <v>0.4424</v>
       </c>
       <c r="B17" s="0">
-        <v>302.7111</v>
+        <v>403.4274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4968</v>
+        <v>0.4894</v>
       </c>
       <c r="B18" s="0">
-        <v>305.5021</v>
+        <v>412.0337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.546</v>
+        <v>0.5409</v>
       </c>
       <c r="B19" s="0">
-        <v>305.1476</v>
+        <v>415.6644</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5985</v>
+        <v>0.5956</v>
       </c>
       <c r="B20" s="0">
-        <v>304.4025</v>
+        <v>421.2837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6655</v>
+        <v>0.6453</v>
       </c>
       <c r="B21" s="0">
-        <v>305.2415</v>
+        <v>423.5885</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.696</v>
+        <v>0.6909</v>
       </c>
       <c r="B22" s="0">
-        <v>305.6587</v>
+        <v>426.5579</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7457</v>
+        <v>0.7438</v>
       </c>
       <c r="B23" s="0">
-        <v>306.8773</v>
+        <v>429.1933</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7976</v>
+        <v>0.7944</v>
       </c>
       <c r="B24" s="0">
-        <v>307.3114</v>
+        <v>431.1662</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8181</v>
+        <v>0.8156</v>
       </c>
       <c r="B25" s="0">
-        <v>306.9343</v>
+        <v>432.4856</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8469</v>
+        <v>0.8446</v>
       </c>
       <c r="B26" s="0">
-        <v>307.3501</v>
+        <v>433.8025</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8719</v>
+        <v>0.8708</v>
       </c>
       <c r="B27" s="0">
-        <v>307.3698</v>
+        <v>434.1254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8979</v>
+        <v>0.8961</v>
       </c>
       <c r="B28" s="0">
-        <v>307.3902</v>
+        <v>435.1118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9216</v>
+        <v>0.9214</v>
       </c>
       <c r="B29" s="0">
-        <v>307.4089</v>
+        <v>437.0931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9448</v>
+        <v>0.9453</v>
       </c>
       <c r="B30" s="0">
-        <v>309.3931</v>
+        <v>438.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.959</v>
+        <v>0.9562</v>
       </c>
       <c r="B31" s="0">
-        <v>310.5837</v>
+        <v>438.7397</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9699</v>
+        <v>0.9643</v>
       </c>
       <c r="B32" s="0">
-        <v>313.7378</v>
+        <v>440.395</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9799</v>
+        <v>0.9747</v>
       </c>
       <c r="B33" s="0">
-        <v>315.3184</v>
+        <v>440.7232</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9868</v>
+        <v>0.9869</v>
       </c>
       <c r="B34" s="0">
-        <v>318.4693</v>
+        <v>442.0456</v>
       </c>
     </row>
     <row r="35"/>
@@ -10523,6 +10547,274 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9869</v>
+      </c>
+      <c r="B3" s="0">
+        <v>336.5924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9553</v>
+      </c>
+      <c r="B4" s="0">
+        <v>333.6184</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9449</v>
+      </c>
+      <c r="B5" s="0">
+        <v>332.9586</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9218</v>
+      </c>
+      <c r="B6" s="0">
+        <v>331.3082</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.897</v>
+      </c>
+      <c r="B7" s="0">
+        <v>331.648</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8694</v>
+      </c>
+      <c r="B8" s="0">
+        <v>331.6572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8468</v>
+      </c>
+      <c r="B9" s="0">
+        <v>331.6647</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8161</v>
+      </c>
+      <c r="B10" s="0">
+        <v>329.6852</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7948</v>
+      </c>
+      <c r="B11" s="0">
+        <v>329.3606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7433</v>
+      </c>
+      <c r="B12" s="0">
+        <v>329.3777</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6936</v>
+      </c>
+      <c r="B13" s="0">
+        <v>328.0677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6453</v>
+      </c>
+      <c r="B14" s="0">
+        <v>326.094</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5933</v>
+      </c>
+      <c r="B15" s="0">
+        <v>323.79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5409</v>
+      </c>
+      <c r="B16" s="0">
+        <v>322.8125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4953</v>
+      </c>
+      <c r="B17" s="0">
+        <v>318.1851</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4451</v>
+      </c>
+      <c r="B18" s="0">
+        <v>312.8959</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3918</v>
+      </c>
+      <c r="B19" s="0">
+        <v>304.6232</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3461</v>
+      </c>
+      <c r="B20" s="0">
+        <v>298.0061</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2964</v>
+      </c>
+      <c r="B21" s="0">
+        <v>287.7425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2535</v>
+      </c>
+      <c r="B22" s="0">
+        <v>278.4716</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1934</v>
+      </c>
+      <c r="B23" s="0">
+        <v>261.5792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1731</v>
+      </c>
+      <c r="B24" s="0">
+        <v>256.9433</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1532</v>
+      </c>
+      <c r="B25" s="0">
+        <v>250.6493</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1351</v>
+      </c>
+      <c r="B26" s="0">
+        <v>244.023</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.1161</v>
+      </c>
+      <c r="B27" s="0">
+        <v>240.7131</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0962</v>
+      </c>
+      <c r="B28" s="0">
+        <v>231.1029</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0746</v>
+      </c>
+      <c r="B29" s="0">
+        <v>221.8249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0565</v>
+      </c>
+      <c r="B30" s="0">
+        <v>213.8722</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0271</v>
+      </c>
+      <c r="B31" s="0">
+        <v>194.98</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0068</v>
+      </c>
+      <c r="B32" s="0">
+        <v>172.437</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10531,7 +10823,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -10544,250 +10836,250 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0073</v>
+        <v>0.9896</v>
       </c>
       <c r="B3" s="0">
-        <v>268.9441</v>
+        <v>294.4765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0278</v>
+        <v>0.9779</v>
       </c>
       <c r="B4" s="0">
-        <v>296.8764</v>
+        <v>294.1488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0597</v>
+        <v>0.9643</v>
       </c>
       <c r="B5" s="0">
-        <v>318.1335</v>
+        <v>293.4901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1003</v>
+        <v>0.948</v>
       </c>
       <c r="B6" s="0">
-        <v>333.1064</v>
+        <v>292.8323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1226</v>
+        <v>0.9227</v>
       </c>
       <c r="B7" s="0">
-        <v>337.0558</v>
+        <v>292.1774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1454</v>
+        <v>0.8956</v>
       </c>
       <c r="B8" s="0">
-        <v>342.1851</v>
+        <v>290.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.17</v>
+        <v>0.8712</v>
       </c>
       <c r="B9" s="0">
-        <v>344.1704</v>
+        <v>290.2048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1896</v>
+        <v>0.8477</v>
       </c>
       <c r="B10" s="0">
-        <v>348.5108</v>
+        <v>290.8758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2101</v>
+        <v>0.8174</v>
       </c>
       <c r="B11" s="0">
-        <v>349.7065</v>
+        <v>288.233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2493</v>
+        <v>0.7958</v>
       </c>
       <c r="B12" s="0">
-        <v>352.4896</v>
+        <v>288.2402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3013</v>
+        <v>0.746</v>
       </c>
       <c r="B13" s="0">
-        <v>355.676</v>
+        <v>287.2618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.356</v>
+        <v>0.695</v>
       </c>
       <c r="B14" s="0">
-        <v>358.0781</v>
+        <v>287.942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3947</v>
+        <v>0.6453</v>
       </c>
       <c r="B15" s="0">
-        <v>360.0745</v>
+        <v>285.9688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4485</v>
+        <v>0.5951</v>
       </c>
       <c r="B16" s="0">
-        <v>361.6895</v>
+        <v>282.6693</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4982</v>
+        <v>0.5459</v>
       </c>
       <c r="B17" s="0">
-        <v>363.6945</v>
+        <v>280.0327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5483</v>
+        <v>0.4925</v>
       </c>
       <c r="B18" s="0">
-        <v>364.5203</v>
+        <v>276.071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5975</v>
+        <v>0.4437</v>
       </c>
       <c r="B19" s="0">
-        <v>366.9181</v>
+        <v>269.7865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6468</v>
+        <v>0.3936</v>
       </c>
       <c r="B20" s="0">
-        <v>366.9568</v>
+        <v>263.5025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6974</v>
+        <v>0.347</v>
       </c>
       <c r="B21" s="0">
-        <v>366.9966</v>
+        <v>255.8908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.747</v>
+        <v>0.2978</v>
       </c>
       <c r="B22" s="0">
-        <v>367.4289</v>
+        <v>246.622</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7985</v>
+        <v>0.2576</v>
       </c>
       <c r="B23" s="0">
-        <v>367.8625</v>
+        <v>238.0133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.82</v>
+        <v>0.1966</v>
       </c>
       <c r="B24" s="0">
-        <v>369.4521</v>
+        <v>225.1006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8487</v>
+        <v>0.1749</v>
       </c>
       <c r="B25" s="0">
-        <v>369.4747</v>
+        <v>220.4652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8724</v>
+        <v>0.1554</v>
       </c>
       <c r="B26" s="0">
-        <v>371.4593</v>
+        <v>214.5026</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8993</v>
+        <v>0.1342</v>
       </c>
       <c r="B27" s="0">
-        <v>371.4804</v>
+        <v>208.5406</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.923</v>
+        <v>0.1179</v>
       </c>
       <c r="B28" s="0">
-        <v>373.0718</v>
+        <v>204.8983</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.949</v>
+        <v>0.0981</v>
       </c>
       <c r="B29" s="0">
-        <v>375.8445</v>
+        <v>196.6145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9617</v>
+        <v>0.0759</v>
       </c>
       <c r="B30" s="0">
-        <v>377.4273</v>
+        <v>189.3263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9727</v>
+        <v>0.0569</v>
       </c>
       <c r="B31" s="0">
-        <v>379.0086</v>
+        <v>181.7055</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9818</v>
+        <v>0.0285</v>
       </c>
       <c r="B32" s="0">
-        <v>382.1613</v>
+        <v>164.8026</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9881</v>
+        <v>0.0077</v>
       </c>
       <c r="B33" s="0">
-        <v>388.0641</v>
+        <v>145.9075</v>
       </c>
     </row>
     <row r="34"/>
@@ -10795,296 +11087,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0064</v>
-      </c>
-      <c r="B3" s="0">
-        <v>262.6525</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0255</v>
-      </c>
-      <c r="B4" s="0">
-        <v>296.0882</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0574</v>
-      </c>
-      <c r="B5" s="0">
-        <v>319.3112</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0775</v>
-      </c>
-      <c r="B6" s="0">
-        <v>333.8748</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0953</v>
-      </c>
-      <c r="B7" s="0">
-        <v>345.2912</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1158</v>
-      </c>
-      <c r="B8" s="0">
-        <v>355.9233</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1363</v>
-      </c>
-      <c r="B9" s="0">
-        <v>365.3758</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1604</v>
-      </c>
-      <c r="B10" s="0">
-        <v>374.4381</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1805</v>
-      </c>
-      <c r="B11" s="0">
-        <v>381.5312</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2037</v>
-      </c>
-      <c r="B12" s="0">
-        <v>390.1995</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2402</v>
-      </c>
-      <c r="B13" s="0">
-        <v>401.2374</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2949</v>
-      </c>
-      <c r="B14" s="0">
-        <v>414.6487</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3441</v>
-      </c>
-      <c r="B15" s="0">
-        <v>424.517</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3906</v>
-      </c>
-      <c r="B16" s="0">
-        <v>433.2036</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4426</v>
-      </c>
-      <c r="B17" s="0">
-        <v>441.5014</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4918</v>
-      </c>
-      <c r="B18" s="0">
-        <v>448.2242</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5438</v>
-      </c>
-      <c r="B19" s="0">
-        <v>455.3424</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5957</v>
-      </c>
-      <c r="B20" s="0">
-        <v>461.6742</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6449</v>
-      </c>
-      <c r="B21" s="0">
-        <v>466.4311</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6942</v>
-      </c>
-      <c r="B22" s="0">
-        <v>471.5813</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7443</v>
-      </c>
-      <c r="B23" s="0">
-        <v>475.9457</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7944</v>
-      </c>
-      <c r="B24" s="0">
-        <v>480.3102</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8154</v>
-      </c>
-      <c r="B25" s="0">
-        <v>482.6858</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8469</v>
-      </c>
-      <c r="B26" s="0">
-        <v>484.2832</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8715</v>
-      </c>
-      <c r="B27" s="0">
-        <v>487.4481</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8961</v>
-      </c>
-      <c r="B28" s="0">
-        <v>488.2538</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9221</v>
-      </c>
-      <c r="B29" s="0">
-        <v>491.0265</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9426</v>
-      </c>
-      <c r="B30" s="0">
-        <v>495.7609</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9558</v>
-      </c>
-      <c r="B31" s="0">
-        <v>500.4895</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9672</v>
-      </c>
-      <c r="B32" s="0">
-        <v>504.0371</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9763</v>
-      </c>
-      <c r="B33" s="0">
-        <v>508.7625</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9863</v>
-      </c>
-      <c r="B34" s="0">
-        <v>513.4886</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9936</v>
-      </c>
-      <c r="B35" s="0">
-        <v>519.7853</v>
-      </c>
-    </row>
-    <row r="36"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>